--- a/MOptim/3.xlsx
+++ b/MOptim/3.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\University\MOptim\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="0" windowWidth="27615" windowHeight="12885"/>
+    <workbookView xWindow="2370" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1 - до" sheetId="1" r:id="rId1"/>
@@ -41,19 +36,19 @@
     <definedName name="solver_itr" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="8" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'1 - оптимизация'!$AF$17:$AF$26</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'1 - оптимизация'!$AF$6:$AF$8</definedName>
     <definedName name="solver_lhs1" localSheetId="6" hidden="1">'2'!$Y$10</definedName>
     <definedName name="solver_lhs1" localSheetId="8" hidden="1">'Поиск решения'!$F$17:$F$19</definedName>
-    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'1 - оптимизация'!$AF$27:$AF$38</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'1 - оптимизация'!$AF$9:$AF$18</definedName>
     <definedName name="solver_lhs2" localSheetId="6" hidden="1">'2'!$Y$11</definedName>
     <definedName name="solver_lhs2" localSheetId="8" hidden="1">'Поиск решения'!$F$7</definedName>
-    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'1 - оптимизация'!$AF$7:$AF$16</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'1 - оптимизация'!$AF$19:$AF$28</definedName>
     <definedName name="solver_lhs3" localSheetId="6" hidden="1">'2'!$Y$12</definedName>
     <definedName name="solver_lhs3" localSheetId="8" hidden="1">'Поиск решения'!$F$8</definedName>
-    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'1 - оптимизация'!$AF$6</definedName>
-    <definedName name="solver_lhs5" localSheetId="4" hidden="1">'1 - оптимизация'!$L$2</definedName>
-    <definedName name="solver_lhs6" localSheetId="4" hidden="1">'1 - оптимизация'!$N$2</definedName>
-    <definedName name="solver_lhs7" localSheetId="4" hidden="1">'1 - оптимизация'!$P$2</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'1 - оптимизация'!$AF$29:$AF$40</definedName>
+    <definedName name="solver_lhs5" localSheetId="4" hidden="1">'1 - оптимизация'!$AF$6</definedName>
+    <definedName name="solver_lhs6" localSheetId="4" hidden="1">'1 - оптимизация'!$AF$27:$AF$38</definedName>
+    <definedName name="solver_lhs7" localSheetId="4" hidden="1">'1 - оптимизация'!$AF$7:$AF$16</definedName>
     <definedName name="solver_lhs8" localSheetId="4" hidden="1">'1 - оптимизация'!$AF$6</definedName>
     <definedName name="solver_lin" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
@@ -74,7 +69,7 @@
     <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="8" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="4" hidden="1">7</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
@@ -89,33 +84,33 @@
     <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="8" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="8" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="8" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="8" hidden="1">3</definedName>
-    <definedName name="solver_rel4" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rel6" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rel7" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel8" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="4" hidden="1">'1 - оптимизация'!$AH$17:$AH$26</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">'1 - оптимизация'!$AH$6:$AH$8</definedName>
     <definedName name="solver_rhs1" localSheetId="6" hidden="1">'2'!$AA$10</definedName>
     <definedName name="solver_rhs1" localSheetId="8" hidden="1">'Поиск решения'!$H$17:$H$19</definedName>
-    <definedName name="solver_rhs2" localSheetId="4" hidden="1">'1 - оптимизация'!$AH$27:$AH$38</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">'1 - оптимизация'!$AH$9:$AH$18</definedName>
     <definedName name="solver_rhs2" localSheetId="6" hidden="1">'2'!$AA$11</definedName>
     <definedName name="solver_rhs2" localSheetId="8" hidden="1">'Поиск решения'!$H$7</definedName>
-    <definedName name="solver_rhs3" localSheetId="4" hidden="1">'1 - оптимизация'!$AH$7:$AH$16</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">'1 - оптимизация'!$AH$19:$AH$28</definedName>
     <definedName name="solver_rhs3" localSheetId="6" hidden="1">'2'!$AA$12</definedName>
     <definedName name="solver_rhs3" localSheetId="8" hidden="1">'Поиск решения'!$H$8</definedName>
-    <definedName name="solver_rhs4" localSheetId="4" hidden="1">'1 - оптимизация'!$AH$6</definedName>
-    <definedName name="solver_rhs5" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_rhs6" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_rhs7" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">'1 - оптимизация'!$AH$29:$AH$40</definedName>
+    <definedName name="solver_rhs5" localSheetId="4" hidden="1">'1 - оптимизация'!$AH$6</definedName>
+    <definedName name="solver_rhs6" localSheetId="4" hidden="1">'1 - оптимизация'!$AH$27:$AH$38</definedName>
+    <definedName name="solver_rhs7" localSheetId="4" hidden="1">'1 - оптимизация'!$AH$7:$AH$16</definedName>
     <definedName name="solver_rhs8" localSheetId="4" hidden="1">'1 - оптимизация'!$AH$6</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
@@ -148,12 +143,12 @@
     <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="8" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="302">
   <si>
     <t>(1;2)</t>
   </si>
@@ -1064,8 +1059,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1489,7 +1484,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1536,6 +1531,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1572,24 +1581,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1605,18 +1601,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1625,7 +1611,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:defRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1648,11 +1634,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1907127123579006"/>
-          <c:y val="2.7777777777777776E-2"/>
+          <c:x val="0.19071271235790066"/>
+          <c:y val="2.7777777777777801E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1660,34 +1645,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1705,7 +1668,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1721,7 +1683,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1733,17 +1695,11 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="0"/>
@@ -1827,7 +1783,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A445-444A-976A-E7AA9A1F8132}"/>
             </c:ext>
@@ -1850,7 +1806,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1866,7 +1821,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1878,17 +1833,11 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="0"/>
@@ -1972,7 +1921,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A445-444A-976A-E7AA9A1F8132}"/>
             </c:ext>
@@ -1995,7 +1944,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2011,7 +1959,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2023,17 +1971,11 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="0"/>
@@ -2117,35 +2059,25 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A445-444A-976A-E7AA9A1F8132}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="402234328"/>
-        <c:axId val="402231976"/>
+        <c:axId val="148243584"/>
+        <c:axId val="148245120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="402234328"/>
+        <c:axId val="148243584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2167,7 +2099,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2179,22 +2111,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402231976"/>
+        <c:crossAx val="148245120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="402231976"/>
+        <c:axId val="148245120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2223,7 +2153,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2237,7 +2166,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2249,10 +2178,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402234328"/>
+        <c:crossAx val="148243584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2267,7 +2196,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2280,7 +2208,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2292,13 +2220,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2322,30 +2249,20 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2354,7 +2271,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
@@ -2368,22 +2285,18 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Время до начала работы</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2392,14 +2305,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="0"/>
@@ -2460,30 +2377,30 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>15.999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>33.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24</c:v>
+                  <c:v>33.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37</c:v>
+                  <c:v>46.000000000000014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1D8B-4415-A1FF-BE0E3F3D7D7F}"/>
             </c:ext>
@@ -2495,7 +2412,6 @@
           <c:tx>
             <c:v>Продолжительность работы</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2504,14 +2420,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="0"/>
@@ -2563,39 +2483,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>15.999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>33.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>17.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>9.0000000000000036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>13.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>19.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.5</c:v>
+                  <c:v>13.999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1D8B-4415-A1FF-BE0E3F3D7D7F}"/>
             </c:ext>
@@ -2607,7 +2527,6 @@
           <c:tx>
             <c:v>Резерв работы</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2616,14 +2535,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="0"/>
@@ -2675,31 +2598,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>14.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>10.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>14.000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.5</c:v>
+                  <c:v>28.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.5</c:v>
+                  <c:v>7.0000000000000071</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2707,56 +2630,60 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1D8B-4415-A1FF-BE0E3F3D7D7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="402233152"/>
-        <c:axId val="402226488"/>
+        <c:axId val="148313600"/>
+        <c:axId val="148315136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="402233152"/>
+        <c:axId val="148313600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="402226488"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="148315136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="402226488"/>
+        <c:axId val="148315136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="402233152"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="148313600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2768,614 +2695,31 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.70649365774615791"/>
-          <c:y val="0.46965769903762061"/>
-          <c:w val="0.29350634225384253"/>
+          <c:y val="0.46965769903762072"/>
+          <c:w val="0.29350634225384276"/>
           <c:h val="0.25115157480314959"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="305">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-        <a:headEnd type="none" w="sm" len="sm"/>
-        <a:tailEnd type="none" w="sm" len="sm"/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="bg1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="70000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="70000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="46000">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="5000"/>
-                <a:lumOff val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="5000"/>
-                <a:lumOff val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-        <a:headEnd type="none" w="sm" len="sm"/>
-        <a:tailEnd type="none" w="sm" len="sm"/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3449,9 +2793,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3489,9 +2833,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3523,10 +2867,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3558,10 +2901,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3734,20 +3076,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -3797,7 +3139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3854,7 +3196,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="1">
-        <f>$I$2-$G$2-$B$2</f>
+        <f>K2</f>
         <v>0</v>
       </c>
       <c r="S2" t="str">
@@ -3862,7 +3204,7 @@
         <v>Критич. Путь</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3921,15 +3263,15 @@
         <v>10</v>
       </c>
       <c r="R3" s="1">
-        <f>$I$3-$G$3-$B$3</f>
+        <f t="shared" ref="R3:R11" si="6">K3</f>
         <v>18</v>
       </c>
       <c r="S3" t="str">
-        <f t="shared" ref="S3:S11" si="6">IF(R3=0,"Критич. Путь", "Есть резерв")</f>
+        <f t="shared" ref="S3:S11" si="7">IF(R3=0,"Критич. Путь", "Есть резерв")</f>
         <v>Есть резерв</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3988,15 +3330,15 @@
         <v>35</v>
       </c>
       <c r="R4" s="1">
-        <f>$I$4-$G$4-$B$4</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="S4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Есть резерв</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4055,15 +3397,15 @@
         <v>18</v>
       </c>
       <c r="R5" s="1">
-        <f>$I$5-$G$5-$B$5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Критич. Путь</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4122,15 +3464,15 @@
         <v>20</v>
       </c>
       <c r="R6" s="1">
-        <f>$I$6-$G$6-$B$6</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Есть резерв</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4189,15 +3531,15 @@
         <v>9</v>
       </c>
       <c r="R7" s="1">
-        <f>$I$7-$G$7-$B$7</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Есть резерв</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4241,15 +3583,15 @@
         <v>22</v>
       </c>
       <c r="R8" s="1">
-        <f>$I$8-$G$8-$B$8</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Есть резерв</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4293,15 +3635,15 @@
         <v>17</v>
       </c>
       <c r="R9" s="1">
-        <f>$I$9-$G$9-$B$9</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Критич. Путь</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -4345,15 +3687,15 @@
         <v>20</v>
       </c>
       <c r="R10" s="1">
-        <f>$I$10-$G$10-$B$10</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Есть резерв</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15.75" thickBot="1">
       <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
@@ -4397,45 +3739,45 @@
         <v>18</v>
       </c>
       <c r="R11" s="1">
-        <f>$I$11-$G$11-$B$11</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Критич. Путь</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A12" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="34" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="34" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="38" t="s">
+      <c r="F12" s="46"/>
+      <c r="G12" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="34" t="s">
+      <c r="H12" s="46"/>
+      <c r="I12" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="38" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="36"/>
-      <c r="M12" s="34" t="s">
+      <c r="L12" s="46"/>
+      <c r="M12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="35"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N12" s="45"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>14</v>
       </c>
@@ -4486,7 +3828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>124</v>
       </c>
@@ -4537,7 +3879,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>134</v>
       </c>
@@ -4576,7 +3918,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="C16">
         <v>1345</v>
       </c>
@@ -4592,7 +3934,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:6">
       <c r="E17">
         <v>1456</v>
       </c>
@@ -4601,7 +3943,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:6">
       <c r="E18">
         <v>136</v>
       </c>
@@ -4610,7 +3952,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:6">
       <c r="E19">
         <v>1346</v>
       </c>
@@ -4619,7 +3961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:6">
       <c r="E20">
         <v>13456</v>
       </c>
@@ -4644,12 +3986,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A42" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
@@ -4660,27 +4002,27 @@
     <col min="7" max="7" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
       <c r="A6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1">
       <c r="B7" s="5" t="s">
         <v>76</v>
       </c>
@@ -4694,7 +4036,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
       <c r="B8" s="4" t="s">
         <v>86</v>
       </c>
@@ -4708,12 +4050,12 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1">
       <c r="A11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="B12" s="5" t="s">
         <v>76</v>
       </c>
@@ -4727,7 +4069,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="B13" s="6" t="s">
         <v>88</v>
       </c>
@@ -4741,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="B14" s="6" t="s">
         <v>90</v>
       </c>
@@ -4755,7 +4097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="B15" s="6" t="s">
         <v>92</v>
       </c>
@@ -4769,7 +4111,7 @@
         <v>16.500000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="B16" s="6" t="s">
         <v>94</v>
       </c>
@@ -4783,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5">
       <c r="B17" s="6" t="s">
         <v>96</v>
       </c>
@@ -4797,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5">
       <c r="B18" s="6" t="s">
         <v>98</v>
       </c>
@@ -4811,7 +4153,7 @@
         <v>19.499999999999996</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5">
       <c r="B19" s="6" t="s">
         <v>100</v>
       </c>
@@ -4825,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5">
       <c r="B20" s="6" t="s">
         <v>102</v>
       </c>
@@ -4839,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5">
       <c r="B21" s="6" t="s">
         <v>104</v>
       </c>
@@ -4853,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5">
       <c r="B22" s="6" t="s">
         <v>106</v>
       </c>
@@ -4867,7 +4209,7 @@
         <v>4.0000000000000036</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5">
       <c r="B23" s="6" t="s">
         <v>108</v>
       </c>
@@ -4881,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5">
       <c r="B24" s="6" t="s">
         <v>110</v>
       </c>
@@ -4895,7 +4237,7 @@
         <v>5.9999999999999991</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5">
       <c r="B25" s="6" t="s">
         <v>112</v>
       </c>
@@ -4909,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5">
       <c r="B26" s="6" t="s">
         <v>114</v>
       </c>
@@ -4923,7 +4265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5">
       <c r="B27" s="6" t="s">
         <v>116</v>
       </c>
@@ -4937,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5">
       <c r="B28" s="6" t="s">
         <v>118</v>
       </c>
@@ -4951,7 +4293,7 @@
         <v>21.05</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5">
       <c r="B29" s="6" t="s">
         <v>120</v>
       </c>
@@ -4965,7 +4307,7 @@
         <v>14.049999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5">
       <c r="B30" s="6" t="s">
         <v>122</v>
       </c>
@@ -4979,7 +4321,7 @@
         <v>21.05</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5">
       <c r="B31" s="6" t="s">
         <v>124</v>
       </c>
@@ -4993,7 +4335,7 @@
         <v>6.0000000000000888</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5">
       <c r="B32" s="6" t="s">
         <v>126</v>
       </c>
@@ -5007,7 +4349,7 @@
         <v>16.999999999987608</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="B33" s="6" t="s">
         <v>128</v>
       </c>
@@ -5021,7 +4363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="B34" s="6" t="s">
         <v>130</v>
       </c>
@@ -5035,7 +4377,7 @@
         <v>21.05</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="B35" s="6" t="s">
         <v>132</v>
       </c>
@@ -5049,7 +4391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="B36" s="6" t="s">
         <v>134</v>
       </c>
@@ -5063,7 +4405,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="B37" s="6" t="s">
         <v>136</v>
       </c>
@@ -5077,7 +4419,7 @@
         <v>21.050000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="B38" s="6" t="s">
         <v>138</v>
       </c>
@@ -5091,7 +4433,7 @@
         <v>33.050000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="B39" s="6" t="s">
         <v>140</v>
       </c>
@@ -5105,7 +4447,7 @@
         <v>21.05</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="B40" s="6" t="s">
         <v>142</v>
       </c>
@@ -5119,7 +4461,7 @@
         <v>34.050000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="B41" s="6" t="s">
         <v>144</v>
       </c>
@@ -5133,7 +4475,7 @@
         <v>33.050000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="15.75" thickBot="1">
       <c r="B42" s="4" t="s">
         <v>146</v>
       </c>
@@ -5147,12 +4489,12 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15.75" thickBot="1">
       <c r="A45" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15.75" thickBot="1">
       <c r="B46" s="5" t="s">
         <v>76</v>
       </c>
@@ -5172,7 +4514,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="B47" s="6" t="s">
         <v>148</v>
       </c>
@@ -5192,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="B48" s="6" t="s">
         <v>151</v>
       </c>
@@ -5212,7 +4554,7 @@
         <v>0.99999999999999911</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7">
       <c r="B49" s="6" t="s">
         <v>154</v>
       </c>
@@ -5232,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7">
       <c r="B50" s="6" t="s">
         <v>156</v>
       </c>
@@ -5252,7 +4594,7 @@
         <v>1.0500000000000007</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7">
       <c r="B51" s="6" t="s">
         <v>158</v>
       </c>
@@ -5272,7 +4614,7 @@
         <v>2.0000000000000018</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7">
       <c r="B52" s="6" t="s">
         <v>160</v>
       </c>
@@ -5292,7 +4634,7 @@
         <v>1.9999999999875193</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7">
       <c r="B53" s="6" t="s">
         <v>162</v>
       </c>
@@ -5312,7 +4654,7 @@
         <v>1.0500000000000007</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7">
       <c r="B54" s="6" t="s">
         <v>164</v>
       </c>
@@ -5332,7 +4674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7">
       <c r="B55" s="6" t="s">
         <v>166</v>
       </c>
@@ -5352,7 +4694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7">
       <c r="B56" s="6" t="s">
         <v>168</v>
       </c>
@@ -5372,7 +4714,7 @@
         <v>1.0000000000000036</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7">
       <c r="B57" s="6" t="s">
         <v>170</v>
       </c>
@@ -5392,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7">
       <c r="B58" s="6" t="s">
         <v>172</v>
       </c>
@@ -5412,7 +4754,7 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7">
       <c r="B59" s="6" t="s">
         <v>174</v>
       </c>
@@ -5432,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7">
       <c r="B60" s="6" t="s">
         <v>176</v>
       </c>
@@ -5452,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7">
       <c r="B61" s="6" t="s">
         <v>178</v>
       </c>
@@ -5472,7 +4814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7">
       <c r="B62" s="6" t="s">
         <v>180</v>
       </c>
@@ -5492,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7">
       <c r="B63" s="6" t="s">
         <v>182</v>
       </c>
@@ -5512,7 +4854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7">
       <c r="B64" s="6" t="s">
         <v>184</v>
       </c>
@@ -5532,7 +4874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7">
       <c r="B65" s="6" t="s">
         <v>186</v>
       </c>
@@ -5552,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7">
       <c r="B66" s="6" t="s">
         <v>188</v>
       </c>
@@ -5572,7 +4914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7">
       <c r="B67" s="6" t="s">
         <v>190</v>
       </c>
@@ -5592,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7">
       <c r="B68" s="6" t="s">
         <v>192</v>
       </c>
@@ -5612,7 +4954,7 @@
         <v>16.050000000012396</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7">
       <c r="B69" s="6" t="s">
         <v>194</v>
       </c>
@@ -5632,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7">
       <c r="B70" s="6" t="s">
         <v>196</v>
       </c>
@@ -5652,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7">
       <c r="B71" s="6" t="s">
         <v>198</v>
       </c>
@@ -5672,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7">
       <c r="B72" s="6" t="s">
         <v>200</v>
       </c>
@@ -5692,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7">
       <c r="B73" s="6" t="s">
         <v>202</v>
       </c>
@@ -5712,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7">
       <c r="B74" s="6" t="s">
         <v>204</v>
       </c>
@@ -5732,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7">
       <c r="B75" s="6" t="s">
         <v>206</v>
       </c>
@@ -5752,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7">
       <c r="B76" s="6" t="s">
         <v>208</v>
       </c>
@@ -5772,7 +5114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7">
       <c r="B77" s="6" t="s">
         <v>210</v>
       </c>
@@ -5792,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7">
       <c r="B78" s="6" t="s">
         <v>212</v>
       </c>
@@ -5812,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7">
       <c r="B79" s="6" t="s">
         <v>214</v>
       </c>
@@ -5832,7 +5174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7">
       <c r="B80" s="6" t="s">
         <v>108</v>
       </c>
@@ -5852,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7">
       <c r="B81" s="6" t="s">
         <v>112</v>
       </c>
@@ -5872,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:7" ht="15.75" thickBot="1">
       <c r="B82" s="4" t="s">
         <v>116</v>
       </c>
@@ -5898,14 +5240,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
@@ -5917,27 +5259,27 @@
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
@@ -5956,7 +5298,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
       <c r="B8" s="10" t="s">
         <v>76</v>
       </c>
@@ -5979,7 +5321,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="B9" s="6" t="s">
         <v>88</v>
       </c>
@@ -6002,7 +5344,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="B10" s="6" t="s">
         <v>90</v>
       </c>
@@ -6025,7 +5367,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="B11" s="6" t="s">
         <v>92</v>
       </c>
@@ -6048,7 +5390,7 @@
         <v>9.9999999999999992E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="B12" s="6" t="s">
         <v>94</v>
       </c>
@@ -6071,7 +5413,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="B13" s="6" t="s">
         <v>96</v>
       </c>
@@ -6094,7 +5436,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="B14" s="6" t="s">
         <v>98</v>
       </c>
@@ -6117,7 +5459,7 @@
         <v>6.0000000000000019E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="B15" s="6" t="s">
         <v>100</v>
       </c>
@@ -6140,7 +5482,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="B16" s="6" t="s">
         <v>102</v>
       </c>
@@ -6163,7 +5505,7 @@
         <v>2.4999999999999991E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" s="6" t="s">
         <v>104</v>
       </c>
@@ -6186,7 +5528,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" s="6" t="s">
         <v>106</v>
       </c>
@@ -6209,7 +5551,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="B19" s="6" t="s">
         <v>108</v>
       </c>
@@ -6232,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8">
       <c r="B20" s="6" t="s">
         <v>110</v>
       </c>
@@ -6255,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8">
       <c r="B21" s="6" t="s">
         <v>112</v>
       </c>
@@ -6278,7 +5620,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8">
       <c r="B22" s="6" t="s">
         <v>114</v>
       </c>
@@ -6301,7 +5643,7 @@
         <v>0.37500000000000006</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="B23" s="6" t="s">
         <v>116</v>
       </c>
@@ -6324,7 +5666,7 @@
         <v>0.24999999999999997</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8">
       <c r="B24" s="6" t="s">
         <v>118</v>
       </c>
@@ -6347,7 +5689,7 @@
         <v>0.3333333333333332</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8">
       <c r="B25" s="6" t="s">
         <v>120</v>
       </c>
@@ -6370,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8">
       <c r="B26" s="6" t="s">
         <v>122</v>
       </c>
@@ -6393,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8">
       <c r="B27" s="6" t="s">
         <v>124</v>
       </c>
@@ -6416,7 +5758,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8">
       <c r="B28" s="6" t="s">
         <v>126</v>
       </c>
@@ -6439,7 +5781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8">
       <c r="B29" s="6" t="s">
         <v>128</v>
       </c>
@@ -6462,7 +5804,7 @@
         <v>0.37500000000000006</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8">
       <c r="B30" s="6" t="s">
         <v>130</v>
       </c>
@@ -6485,7 +5827,7 @@
         <v>0.3333333333333332</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8">
       <c r="B31" s="6" t="s">
         <v>132</v>
       </c>
@@ -6508,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8">
       <c r="B32" s="6" t="s">
         <v>134</v>
       </c>
@@ -6531,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="B33" s="6" t="s">
         <v>136</v>
       </c>
@@ -6554,7 +5896,7 @@
         <v>0.3333333333333332</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="B34" s="6" t="s">
         <v>138</v>
       </c>
@@ -6577,7 +5919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="B35" s="6" t="s">
         <v>140</v>
       </c>
@@ -6600,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="B36" s="6" t="s">
         <v>142</v>
       </c>
@@ -6623,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="B37" s="6" t="s">
         <v>144</v>
       </c>
@@ -6646,7 +5988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1">
       <c r="B38" s="4" t="s">
         <v>146</v>
       </c>
@@ -6669,12 +6011,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15.75" thickBot="1">
       <c r="A40" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9" t="s">
@@ -6693,7 +6035,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15.75" thickBot="1">
       <c r="B42" s="10" t="s">
         <v>76</v>
       </c>
@@ -6716,7 +6058,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="B43" s="6" t="s">
         <v>148</v>
       </c>
@@ -6739,7 +6081,7 @@
         <v>25.999999999999993</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="B44" s="6" t="s">
         <v>151</v>
       </c>
@@ -6762,7 +6104,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="B45" s="6" t="s">
         <v>154</v>
       </c>
@@ -6785,7 +6127,7 @@
         <v>2.8000000000000016</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="B46" s="6" t="s">
         <v>156</v>
       </c>
@@ -6808,7 +6150,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="B47" s="6" t="s">
         <v>158</v>
       </c>
@@ -6831,7 +6173,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="B48" s="6" t="s">
         <v>160</v>
       </c>
@@ -6854,7 +6196,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8">
       <c r="B49" s="6" t="s">
         <v>162</v>
       </c>
@@ -6877,7 +6219,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8">
       <c r="B50" s="6" t="s">
         <v>164</v>
       </c>
@@ -6900,7 +6242,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8">
       <c r="B51" s="6" t="s">
         <v>166</v>
       </c>
@@ -6923,7 +6265,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8">
       <c r="B52" s="6" t="s">
         <v>168</v>
       </c>
@@ -6946,7 +6288,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8">
       <c r="B53" s="6" t="s">
         <v>170</v>
       </c>
@@ -6969,7 +6311,7 @@
         <v>12.999999999999996</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8">
       <c r="B54" s="6" t="s">
         <v>172</v>
       </c>
@@ -6992,7 +6334,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8">
       <c r="B55" s="6" t="s">
         <v>174</v>
       </c>
@@ -7015,7 +6357,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8">
       <c r="B56" s="6" t="s">
         <v>176</v>
       </c>
@@ -7038,7 +6380,7 @@
         <v>1.400000000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8">
       <c r="B57" s="6" t="s">
         <v>178</v>
       </c>
@@ -7061,7 +6403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8">
       <c r="B58" s="6" t="s">
         <v>180</v>
       </c>
@@ -7084,7 +6426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8">
       <c r="B59" s="6" t="s">
         <v>182</v>
       </c>
@@ -7107,7 +6449,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8">
       <c r="B60" s="6" t="s">
         <v>184</v>
       </c>
@@ -7130,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8">
       <c r="B61" s="6" t="s">
         <v>186</v>
       </c>
@@ -7153,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8">
       <c r="B62" s="6" t="s">
         <v>188</v>
       </c>
@@ -7176,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8">
       <c r="B63" s="6" t="s">
         <v>190</v>
       </c>
@@ -7199,7 +6541,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8">
       <c r="B64" s="6" t="s">
         <v>192</v>
       </c>
@@ -7222,7 +6564,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8">
       <c r="B65" s="6" t="s">
         <v>194</v>
       </c>
@@ -7245,7 +6587,7 @@
         <v>16.05</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8">
       <c r="B66" s="6" t="s">
         <v>196</v>
       </c>
@@ -7268,7 +6610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8">
       <c r="B67" s="6" t="s">
         <v>198</v>
       </c>
@@ -7291,7 +6633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8">
       <c r="B68" s="6" t="s">
         <v>200</v>
       </c>
@@ -7314,7 +6656,7 @@
         <v>4.2000000000000037</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8">
       <c r="B69" s="6" t="s">
         <v>202</v>
       </c>
@@ -7337,7 +6679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8">
       <c r="B70" s="6" t="s">
         <v>204</v>
       </c>
@@ -7360,7 +6702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8">
       <c r="B71" s="6" t="s">
         <v>206</v>
       </c>
@@ -7383,7 +6725,7 @@
         <v>1.400000000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8">
       <c r="B72" s="6" t="s">
         <v>208</v>
       </c>
@@ -7406,7 +6748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8">
       <c r="B73" s="6" t="s">
         <v>210</v>
       </c>
@@ -7429,7 +6771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8">
       <c r="B74" s="6" t="s">
         <v>212</v>
       </c>
@@ -7452,7 +6794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" ht="15.75" thickBot="1">
       <c r="B75" s="4" t="s">
         <v>214</v>
       </c>
@@ -7481,14 +6823,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
@@ -7502,30 +6844,30 @@
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="6" spans="1:10">
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
         <v>236</v>
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="B7" s="10" t="s">
         <v>76</v>
       </c>
@@ -7536,7 +6878,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="B8" s="4" t="s">
         <v>86</v>
       </c>
@@ -7547,8 +6889,8 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:10">
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
         <v>237</v>
@@ -7567,7 +6909,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1">
       <c r="B12" s="10" t="s">
         <v>76</v>
       </c>
@@ -7590,7 +6932,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" s="6" t="s">
         <v>88</v>
       </c>
@@ -7613,7 +6955,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" s="6" t="s">
         <v>90</v>
       </c>
@@ -7636,7 +6978,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="6" t="s">
         <v>92</v>
       </c>
@@ -7659,7 +7001,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" s="6" t="s">
         <v>94</v>
       </c>
@@ -7682,7 +7024,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10">
       <c r="B17" s="6" t="s">
         <v>96</v>
       </c>
@@ -7705,7 +7047,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10">
       <c r="B18" s="6" t="s">
         <v>98</v>
       </c>
@@ -7728,7 +7070,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10">
       <c r="B19" s="6" t="s">
         <v>100</v>
       </c>
@@ -7751,7 +7093,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10">
       <c r="B20" s="6" t="s">
         <v>102</v>
       </c>
@@ -7774,7 +7116,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10">
       <c r="B21" s="6" t="s">
         <v>104</v>
       </c>
@@ -7797,7 +7139,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10">
       <c r="B22" s="6" t="s">
         <v>106</v>
       </c>
@@ -7820,7 +7162,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10">
       <c r="B23" s="6" t="s">
         <v>108</v>
       </c>
@@ -7843,7 +7185,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10">
       <c r="B24" s="6" t="s">
         <v>110</v>
       </c>
@@ -7866,7 +7208,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10">
       <c r="B25" s="6" t="s">
         <v>112</v>
       </c>
@@ -7889,7 +7231,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10">
       <c r="B26" s="6" t="s">
         <v>114</v>
       </c>
@@ -7912,7 +7254,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10">
       <c r="B27" s="6" t="s">
         <v>116</v>
       </c>
@@ -7935,7 +7277,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10">
       <c r="B28" s="6" t="s">
         <v>118</v>
       </c>
@@ -7958,7 +7300,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10">
       <c r="B29" s="6" t="s">
         <v>120</v>
       </c>
@@ -7981,7 +7323,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10">
       <c r="B30" s="6" t="s">
         <v>122</v>
       </c>
@@ -8004,7 +7346,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10">
       <c r="B31" s="6" t="s">
         <v>124</v>
       </c>
@@ -8027,7 +7369,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10">
       <c r="B32" s="6" t="s">
         <v>126</v>
       </c>
@@ -8050,7 +7392,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10">
       <c r="B33" s="6" t="s">
         <v>128</v>
       </c>
@@ -8073,7 +7415,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10">
       <c r="B34" s="6" t="s">
         <v>130</v>
       </c>
@@ -8096,7 +7438,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10">
       <c r="B35" s="6" t="s">
         <v>132</v>
       </c>
@@ -8119,7 +7461,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10">
       <c r="B36" s="6" t="s">
         <v>134</v>
       </c>
@@ -8142,7 +7484,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10">
       <c r="B37" s="6" t="s">
         <v>136</v>
       </c>
@@ -8165,7 +7507,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10">
       <c r="B38" s="6" t="s">
         <v>138</v>
       </c>
@@ -8188,7 +7530,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10">
       <c r="B39" s="6" t="s">
         <v>140</v>
       </c>
@@ -8211,7 +7553,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10">
       <c r="B40" s="6" t="s">
         <v>142</v>
       </c>
@@ -8234,7 +7576,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10">
       <c r="B41" s="6" t="s">
         <v>144</v>
       </c>
@@ -8257,7 +7599,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" ht="15.75" thickBot="1">
       <c r="B42" s="4" t="s">
         <v>146</v>
       </c>
@@ -8286,19 +7628,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -8402,456 +7744,426 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
         <v>64</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>19.999999999999957</v>
+      </c>
+      <c r="E2">
+        <v>4.9999999999999751</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>9.9999999999999805</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>39.999999999999972</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>15.999999999999998</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>33.000000000000007</v>
+      </c>
+      <c r="R2">
         <v>16</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="S2">
+        <v>33.000000000000007</v>
+      </c>
+      <c r="T2">
+        <v>15.999999999999998</v>
+      </c>
+      <c r="U2">
+        <v>36</v>
+      </c>
+      <c r="V2">
         <v>10</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>24.999999999999996</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="W2">
+        <v>19.000000000000004</v>
+      </c>
+      <c r="X2">
         <v>10</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>9</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>24</v>
-      </c>
-      <c r="R2">
-        <v>15</v>
-      </c>
-      <c r="S2">
-        <v>24</v>
-      </c>
-      <c r="T2">
-        <v>26</v>
-      </c>
-      <c r="U2">
-        <v>37</v>
-      </c>
-      <c r="V2">
-        <v>9</v>
-      </c>
-      <c r="W2">
-        <v>24</v>
-      </c>
-      <c r="X2">
-        <v>9</v>
-      </c>
       <c r="Y2">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="Z2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="AA2">
-        <v>37</v>
+        <v>46.000000000000007</v>
       </c>
       <c r="AB2">
-        <v>24</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="AC2">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="AD2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AE2">
-        <v>54.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+        <v>59.999999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
         <v>67</v>
       </c>
-      <c r="AE5">
+      <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
       <c r="AF5">
-        <f>SUMPRODUCT(AE5,AE2)</f>
-        <v>54.5</v>
+        <f>SUMPRODUCT(B5:AE5,B2:AE2)</f>
+        <v>86.999999999999886</v>
       </c>
       <c r="AG5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="AE6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="AF6">
-        <f t="shared" ref="AF6:AF38" si="0">SUMPRODUCT($B$2:$AE$2,B6:AE6)</f>
-        <v>56</v>
+        <f>SUMPRODUCT($B$2:$AE$2,B6:AE6)</f>
+        <v>59.999999999999993</v>
       </c>
       <c r="AG6" t="s">
         <v>69</v>
       </c>
       <c r="AH6">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="L7">
-        <v>-1</v>
-      </c>
-      <c r="M7">
+      <c r="AC7">
         <v>1</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" ref="AF7" si="0">SUMPRODUCT($B$2:$AE$2,B7:AE7)</f>
+        <v>53</v>
       </c>
       <c r="AG7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AH7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="N8">
-        <v>-1</v>
-      </c>
-      <c r="O8">
+      <c r="Y8">
         <v>1</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>SUMPRODUCT($B$2:$AE$2,B8:AE8)</f>
+        <v>32</v>
       </c>
       <c r="AG8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AH8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="P9">
+      <c r="L9">
         <v>-1</v>
       </c>
-      <c r="Q9">
+      <c r="M9">
         <v>1</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f t="shared" ref="AF9:AF40" si="1">SUMPRODUCT($B$2:$AE$2,B9:AE9)</f>
+        <v>15.999999999999998</v>
       </c>
       <c r="AG9" t="s">
         <v>70</v>
       </c>
       <c r="AH9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="R10">
+      <c r="N10">
         <v>-1</v>
       </c>
-      <c r="S10">
+      <c r="O10">
         <v>1</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AG10" t="s">
         <v>70</v>
       </c>
       <c r="AH10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="T11">
+      <c r="P11">
         <v>-1</v>
       </c>
-      <c r="U11">
+      <c r="Q11">
         <v>1</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>33.000000000000007</v>
       </c>
       <c r="AG11" t="s">
         <v>70</v>
       </c>
       <c r="AH11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="V12">
+      <c r="R12">
         <v>-1</v>
       </c>
-      <c r="W12">
+      <c r="S12">
         <v>1</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>17.000000000000007</v>
       </c>
       <c r="AG12" t="s">
         <v>70</v>
       </c>
       <c r="AH12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="X13">
+      <c r="T13">
         <v>-1</v>
       </c>
-      <c r="Y13">
+      <c r="U13">
         <v>1</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="AG13" t="s">
         <v>70</v>
       </c>
       <c r="AH13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="Z14">
+      <c r="V14">
         <v>-1</v>
       </c>
-      <c r="AA14">
+      <c r="W14">
         <v>1</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>9.0000000000000036</v>
       </c>
       <c r="AG14" t="s">
         <v>70</v>
       </c>
       <c r="AH14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="AB15">
+      <c r="X15">
         <v>-1</v>
       </c>
-      <c r="AC15">
+      <c r="Y15">
         <v>1</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="AG15" t="s">
         <v>70</v>
       </c>
       <c r="AH15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="AD16">
+      <c r="Z16">
         <v>-1</v>
       </c>
-      <c r="AE16">
+      <c r="AA16">
         <v>1</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>13.000000000000007</v>
       </c>
       <c r="AG16" t="s">
         <v>70</v>
       </c>
       <c r="AH16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
       <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17">
+      <c r="AB17">
         <v>-1</v>
       </c>
-      <c r="M17">
+      <c r="AC17">
         <v>1</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>19.999999999999993</v>
       </c>
       <c r="AG17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AH17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
       <c r="A18">
         <v>13</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="N18">
+      <c r="AD18">
         <v>-1</v>
       </c>
-      <c r="O18">
+      <c r="AE18">
         <v>1</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>13.999999999999993</v>
       </c>
       <c r="AG18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AH18">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
       <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <v>0.25</v>
+      </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -8859,123 +8171,123 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="P19">
+      <c r="L19">
         <v>-1</v>
       </c>
-      <c r="Q19">
+      <c r="M19">
         <v>1</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="AG19" t="s">
         <v>71</v>
       </c>
       <c r="AH19">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
       <c r="A20">
         <v>15</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2">
-        <v>0.15</v>
-      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="R20">
+      <c r="N20">
         <v>-1</v>
       </c>
-      <c r="S20">
+      <c r="O20">
         <v>1</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AG20" t="s">
         <v>71</v>
       </c>
       <c r="AH20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
       <c r="A21">
         <v>16</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>0.1</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2">
-        <v>0.3</v>
-      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="T21">
+      <c r="P21">
         <v>-1</v>
       </c>
-      <c r="U21">
+      <c r="Q21">
         <v>1</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="AG21" t="s">
         <v>71</v>
       </c>
       <c r="AH21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
       <c r="A22">
         <v>17</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2">
+        <v>0.2</v>
+      </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="V22">
+      <c r="R22">
         <v>-1</v>
       </c>
-      <c r="W22">
+      <c r="S22">
         <v>1</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="AG22" t="s">
         <v>71</v>
       </c>
       <c r="AH22">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
       <c r="A23">
         <v>18</v>
       </c>
@@ -8983,32 +8295,32 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2">
+        <v>0.13</v>
+      </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="2">
-        <v>0.08</v>
-      </c>
+      <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="X23">
+      <c r="T23">
         <v>-1</v>
       </c>
-      <c r="Y23">
+      <c r="U23">
         <v>1</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="AG23" t="s">
         <v>71</v>
       </c>
       <c r="AH23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
       <c r="A24">
         <v>19</v>
       </c>
@@ -9017,31 +8329,31 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2">
+        <v>0.15</v>
+      </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="2">
-        <v>0.4</v>
-      </c>
+      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="Z24">
+      <c r="V24">
         <v>-1</v>
       </c>
-      <c r="AA24">
+      <c r="W24">
         <v>1</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>9.0000000000000036</v>
       </c>
       <c r="AG24" t="s">
         <v>71</v>
       </c>
       <c r="AH24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
       <c r="A25">
         <v>20</v>
       </c>
@@ -9051,30 +8363,30 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <v>0.06</v>
+      </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="AB25">
+      <c r="X25">
         <v>-1</v>
       </c>
-      <c r="AC25">
+      <c r="Y25">
         <v>1</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="AG25" t="s">
         <v>71</v>
       </c>
       <c r="AH25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
       <c r="A26">
         <v>21</v>
       </c>
@@ -9085,83 +8397,107 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2">
+        <v>0.4</v>
+      </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AD26">
+      <c r="K26" s="2"/>
+      <c r="Z26">
         <v>-1</v>
       </c>
-      <c r="AE26">
+      <c r="AA26">
         <v>1</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="AG26" t="s">
         <v>71</v>
       </c>
       <c r="AH26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
       <c r="A27">
         <v>22</v>
       </c>
-      <c r="M27">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="AB27">
         <v>-1</v>
       </c>
-      <c r="R27">
+      <c r="AC27">
         <v>1</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>19.999999999999993</v>
       </c>
       <c r="AG27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AH27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
       <c r="A28">
         <v>23</v>
       </c>
-      <c r="M28">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AD28">
         <v>-1</v>
       </c>
-      <c r="T28">
+      <c r="AE28">
         <v>1</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>17.999999999999993</v>
       </c>
       <c r="AG28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AH28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
       <c r="A29">
         <v>24</v>
       </c>
-      <c r="O29">
+      <c r="M29">
         <v>-1</v>
       </c>
-      <c r="V29">
+      <c r="R29">
         <v>1</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.7763568394002505E-15</v>
       </c>
       <c r="AG29" t="s">
         <v>70</v>
@@ -9170,18 +8506,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34">
       <c r="A30">
         <v>25</v>
       </c>
-      <c r="O30">
+      <c r="M30">
         <v>-1</v>
       </c>
-      <c r="X30">
+      <c r="T30">
         <v>1</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG30" t="s">
@@ -9191,18 +8527,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34">
       <c r="A31">
         <v>26</v>
       </c>
-      <c r="Q31">
+      <c r="O31">
         <v>-1</v>
       </c>
-      <c r="Z31">
+      <c r="V31">
         <v>1</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG31" t="s">
@@ -9212,18 +8548,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34">
       <c r="A32">
         <v>27</v>
       </c>
-      <c r="S32">
+      <c r="O32">
         <v>-1</v>
       </c>
-      <c r="Z32">
+      <c r="X32">
         <v>1</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG32" t="s">
@@ -9233,19 +8569,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34">
       <c r="A33">
         <v>28</v>
       </c>
-      <c r="W33">
+      <c r="Q33">
         <v>-1</v>
       </c>
       <c r="Z33">
         <v>1</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-7.1054273576010019E-15</v>
       </c>
       <c r="AG33" t="s">
         <v>70</v>
@@ -9254,19 +8590,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34">
       <c r="A34">
         <v>29</v>
       </c>
-      <c r="Q34">
+      <c r="S34">
         <v>-1</v>
       </c>
-      <c r="AB34">
+      <c r="Z34">
         <v>1</v>
       </c>
       <c r="AF34">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-7.1054273576010019E-15</v>
       </c>
       <c r="AG34" t="s">
         <v>70</v>
@@ -9275,19 +8611,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34">
       <c r="A35">
         <v>30</v>
       </c>
-      <c r="S35">
+      <c r="W35">
         <v>-1</v>
       </c>
-      <c r="AB35">
+      <c r="Z35">
         <v>1</v>
       </c>
       <c r="AF35">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>13.999999999999996</v>
       </c>
       <c r="AG35" t="s">
         <v>70</v>
@@ -9296,18 +8632,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34">
       <c r="A36">
         <v>31</v>
       </c>
-      <c r="W36">
+      <c r="Q36">
         <v>-1</v>
       </c>
       <c r="AB36">
         <v>1</v>
       </c>
       <c r="AF36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG36" t="s">
@@ -9317,18 +8653,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34">
       <c r="A37">
         <v>32</v>
       </c>
-      <c r="U37">
+      <c r="S37">
         <v>-1</v>
       </c>
-      <c r="AD37">
+      <c r="AB37">
         <v>1</v>
       </c>
       <c r="AF37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG37" t="s">
@@ -9338,24 +8674,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34">
       <c r="A38">
         <v>33</v>
       </c>
-      <c r="AA38">
+      <c r="W38">
         <v>-1</v>
       </c>
-      <c r="AD38">
+      <c r="AB38">
         <v>1</v>
       </c>
       <c r="AF38">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>14.000000000000004</v>
       </c>
       <c r="AG38" t="s">
         <v>70</v>
       </c>
       <c r="AH38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34">
+      <c r="A39">
+        <v>34</v>
+      </c>
+      <c r="U39">
+        <v>-1</v>
+      </c>
+      <c r="AD39">
+        <v>1</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34">
+      <c r="A40">
+        <v>35</v>
+      </c>
+      <c r="AA40">
+        <v>-1</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="1"/>
+        <v>-7.1054273576010019E-15</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH40">
         <v>0</v>
       </c>
     </row>
@@ -9365,16 +8743,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -9424,12 +8805,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <f>'1 - оптимизация'!AF9</f>
+        <v>15.999999999999998</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -9450,19 +8832,19 @@
       </c>
       <c r="H2">
         <f>G2+B2</f>
-        <v>10</v>
+        <v>15.999999999999998</v>
       </c>
       <c r="I2">
         <f>E3</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <f>I2-B2</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <f>$I$2-$G$2-$B$2</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <f>D3-E2-B2</f>
@@ -9470,45 +8852,47 @@
       </c>
       <c r="M2">
         <f>E3-E2-B2</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <f>$D$2</f>
         <v>0</v>
       </c>
       <c r="Q2" s="17">
-        <v>10</v>
+        <f>B2</f>
+        <v>15.999999999999998</v>
       </c>
       <c r="R2" s="1">
-        <f>$I$2-$G$2-$B$2</f>
-        <v>5</v>
+        <f>K2</f>
+        <v>0</v>
       </c>
       <c r="S2" t="str">
         <f>IF(R2=0,"Критич. Путь", "Есть резерв")</f>
-        <v>Есть резерв</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>Критич. Путь</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <f>'1 - оптимизация'!AF10</f>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1">
         <f>B2</f>
-        <v>10</v>
+        <v>15.999999999999998</v>
       </c>
       <c r="E3" s="1">
         <f>D7-(MAX(H13:H15))</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G4" si="1">$D$2</f>
@@ -9516,19 +8900,19 @@
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="2">G3+B3</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3">
         <f>E4</f>
-        <v>9</v>
+        <v>24.000000000000007</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J11" si="3">I3-B3</f>
-        <v>0</v>
+        <v>14.000000000000007</v>
       </c>
       <c r="K3">
         <f>$I$3-$G$3-$B$3</f>
-        <v>0</v>
+        <v>14.000000000000007</v>
       </c>
       <c r="L3">
         <f>D4-E2-B3</f>
@@ -9536,45 +8920,47 @@
       </c>
       <c r="M3">
         <f>E4-E2-B3</f>
-        <v>0</v>
+        <v>14.000000000000007</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:P4" si="4">$D$2</f>
         <v>0</v>
       </c>
       <c r="Q3" s="17">
-        <v>9</v>
+        <f t="shared" ref="Q3:Q11" si="5">B3</f>
+        <v>10</v>
       </c>
       <c r="R3" s="1">
-        <f>$I$3-$G$3-$B$3</f>
-        <v>0</v>
+        <f t="shared" ref="R3:R11" si="6">K3</f>
+        <v>14.000000000000007</v>
       </c>
       <c r="S3" t="str">
-        <f t="shared" ref="S3:S11" si="5">IF(R3=0,"Критич. Путь", "Есть резерв")</f>
-        <v>Критич. Путь</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" ref="S3:S11" si="7">IF(R3=0,"Критич. Путь", "Есть резерв")</f>
+        <v>Есть резерв</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <f>'1 - оптимизация'!AF11</f>
+        <v>33.000000000000007</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="1">
         <f>B3</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <f>D7-MAX(L13:L15)</f>
-        <v>9</v>
+        <v>24.000000000000007</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.000000000000007</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
@@ -9582,11 +8968,11 @@
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="I4">
         <f>E5</f>
-        <v>24</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
@@ -9609,34 +8995,36 @@
         <v>0</v>
       </c>
       <c r="Q4" s="17">
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>33.000000000000007</v>
       </c>
       <c r="R4" s="1">
-        <f>$I$4-$G$4-$B$4</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Критич. Путь</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <f>'1 - оптимизация'!AF12</f>
+        <v>17.000000000000007</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
       </c>
       <c r="D5" s="1">
         <f>MAX(B13:B15)</f>
-        <v>24</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="E5" s="1">
         <f>D7-MAX(N13:N14)</f>
-        <v>24</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
@@ -9644,23 +9032,23 @@
       </c>
       <c r="G5">
         <f>$D$3</f>
-        <v>10</v>
+        <v>15.999999999999998</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="I5">
         <f>E5</f>
-        <v>24</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K5">
         <f>$I$5-$G$5-$B$5</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <f>D5-E3-B5</f>
@@ -9672,37 +9060,39 @@
       </c>
       <c r="P5" s="1">
         <f>$D$3</f>
-        <v>10</v>
+        <v>15.999999999999998</v>
       </c>
       <c r="Q5" s="17">
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>17.000000000000007</v>
       </c>
       <c r="R5" s="1">
-        <f>$I$5-$G$5-$B$5</f>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="S5" t="str">
-        <f t="shared" si="5"/>
-        <v>Есть резерв</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>Критич. Путь</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <f>'1 - оптимизация'!AF13</f>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="1">
         <f>MAX(D13:D16)</f>
-        <v>37</v>
+        <v>46.000000000000014</v>
       </c>
       <c r="E6" s="1">
         <f>D7-B11</f>
-        <v>37</v>
+        <v>46.000000000000014</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
@@ -9710,65 +9100,67 @@
       </c>
       <c r="G6">
         <f>$D$3</f>
-        <v>10</v>
+        <v>15.999999999999998</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I6">
         <f>E6</f>
-        <v>37</v>
+        <v>46.000000000000014</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>26.000000000000014</v>
       </c>
       <c r="K6">
         <f>$I$6-$G$6-$B$6</f>
-        <v>16</v>
+        <v>10.000000000000014</v>
       </c>
       <c r="L6">
         <f>D6-E3-B6</f>
-        <v>11</v>
+        <v>10.000000000000014</v>
       </c>
       <c r="M6">
         <f>E6-E3-B6</f>
-        <v>11</v>
+        <v>10.000000000000014</v>
       </c>
       <c r="P6" s="1">
         <f>$D$3</f>
-        <v>10</v>
+        <v>15.999999999999998</v>
       </c>
       <c r="Q6" s="17">
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="R6" s="1">
-        <f>$I$6-$G$6-$B$6</f>
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>10.000000000000014</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Есть резерв</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <f>'1 - оптимизация'!AF14</f>
+        <v>9.0000000000000036</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
       </c>
       <c r="D7" s="15">
         <f>MAX(F13:F20)</f>
-        <v>54.5</v>
+        <v>60.000000000000007</v>
       </c>
       <c r="E7" s="1">
         <f>D7-0</f>
-        <v>54.5</v>
+        <v>60.000000000000007</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
@@ -9776,23 +9168,23 @@
       </c>
       <c r="G7">
         <f>$D$4</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>19.000000000000004</v>
       </c>
       <c r="I7">
         <f>E5</f>
-        <v>24</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>24.000000000000004</v>
       </c>
       <c r="K7">
         <f>$I$7-$G$7-$B$7</f>
-        <v>0</v>
+        <v>14.000000000000004</v>
       </c>
       <c r="L7">
         <f>D5-E4-B7</f>
@@ -9804,93 +9196,97 @@
       </c>
       <c r="P7" s="1">
         <f>$D$4</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="17">
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>9.0000000000000036</v>
       </c>
       <c r="R7" s="1">
-        <f>$I$7-$G$7-$B$7</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>14.000000000000004</v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="5"/>
-        <v>Критич. Путь</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>Есть резерв</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <f>'1 - оптимизация'!AF15</f>
+        <v>22</v>
       </c>
       <c r="G8">
         <f>$D$4</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I8">
         <f>E7</f>
-        <v>54.5</v>
+        <v>60.000000000000007</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>44.5</v>
+        <v>38.000000000000007</v>
       </c>
       <c r="K8">
         <f>$I$8-$G$8-$B$8</f>
-        <v>35.5</v>
+        <v>28.000000000000007</v>
       </c>
       <c r="L8">
         <f>D7-E4-B8</f>
-        <v>35.5</v>
+        <v>14</v>
       </c>
       <c r="M8">
         <f>E7-E4-B8</f>
-        <v>35.5</v>
+        <v>14</v>
       </c>
       <c r="P8" s="1">
         <f>$D$4</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="17">
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>22</v>
       </c>
       <c r="R8" s="1">
-        <f>$I$8-$G$8-$B$8</f>
-        <v>35.5</v>
+        <f t="shared" si="6"/>
+        <v>28.000000000000007</v>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Есть резерв</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <f>'1 - оптимизация'!AF16</f>
+        <v>13.000000000000007</v>
       </c>
       <c r="G9">
         <f>$D$5</f>
-        <v>24</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>46.000000000000014</v>
       </c>
       <c r="I9">
         <f>E6</f>
-        <v>37</v>
+        <v>46.000000000000014</v>
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="K9">
         <f>$I$9-$G$9-$B$9</f>
@@ -9906,93 +9302,97 @@
       </c>
       <c r="P9" s="1">
         <f>$D$5</f>
-        <v>24</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="Q9" s="17">
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>13.000000000000007</v>
       </c>
       <c r="R9" s="1">
-        <f>$I$9-$G$9-$B$9</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Критич. Путь</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <f>'1 - оптимизация'!AF17</f>
+        <v>19.999999999999993</v>
       </c>
       <c r="G10">
         <f>$D$5</f>
-        <v>24</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I10">
         <f>E7</f>
-        <v>54.5</v>
+        <v>60.000000000000007</v>
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>39.5</v>
+        <v>40.000000000000014</v>
       </c>
       <c r="K10">
         <f>$I$10-$G$10-$B$10</f>
-        <v>15.5</v>
+        <v>7.0000000000000071</v>
       </c>
       <c r="L10">
         <f>D7-E5-B10</f>
-        <v>15.5</v>
+        <v>7.0000000000000071</v>
       </c>
       <c r="M10">
         <f>E7-E5-B10</f>
-        <v>15.5</v>
+        <v>7.0000000000000071</v>
       </c>
       <c r="P10" s="1">
         <f>$D$5</f>
-        <v>24</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="Q10" s="17">
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>19.999999999999993</v>
       </c>
       <c r="R10" s="1">
-        <f>$I$10-$G$10-$B$10</f>
-        <v>15.5</v>
+        <f t="shared" si="6"/>
+        <v>7.0000000000000071</v>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Есть резерв</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15.75" thickBot="1">
       <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.5</v>
+        <f>'1 - оптимизация'!AF18</f>
+        <v>13.999999999999993</v>
       </c>
       <c r="G11">
         <f>D6</f>
-        <v>37</v>
+        <v>46.000000000000014</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>54.5</v>
+        <v>60.000000000000007</v>
       </c>
       <c r="I11">
         <f>E7</f>
-        <v>54.5</v>
+        <v>60.000000000000007</v>
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>46.000000000000014</v>
       </c>
       <c r="K11">
         <f>$I$11-$G$11-$B$11</f>
@@ -10008,180 +9408,181 @@
       </c>
       <c r="P11" s="1">
         <f>D6</f>
-        <v>37</v>
+        <v>46.000000000000014</v>
       </c>
       <c r="Q11" s="17">
-        <v>17.5</v>
+        <f t="shared" si="5"/>
+        <v>13.999999999999993</v>
       </c>
       <c r="R11" s="1">
-        <f>$I$11-$G$11-$B$11</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Критич. Путь</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+    <row r="12" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A12" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="39" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="39" t="s">
+      <c r="D12" s="52"/>
+      <c r="E12" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="39" t="s">
+      <c r="F12" s="52"/>
+      <c r="G12" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="39" t="s">
+      <c r="H12" s="52"/>
+      <c r="I12" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="39" t="s">
+      <c r="J12" s="52"/>
+      <c r="K12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="42"/>
-      <c r="M12" s="39" t="s">
+      <c r="L12" s="52"/>
+      <c r="M12" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="40"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N12" s="50"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="13">
         <v>14</v>
       </c>
       <c r="B13" s="14">
         <f>B4</f>
-        <v>24</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="C13" s="13">
         <v>125</v>
       </c>
       <c r="D13" s="14">
         <f>B2+B6</f>
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E13" s="13">
         <v>1256</v>
       </c>
       <c r="F13" s="14">
         <f>B2+B6+B11</f>
-        <v>38.5</v>
+        <v>49.999999999999993</v>
       </c>
       <c r="G13" s="13">
         <v>256</v>
       </c>
       <c r="H13" s="14">
         <f>B6+B11</f>
-        <v>28.5</v>
+        <v>33.999999999999993</v>
       </c>
       <c r="I13" s="13">
         <v>25</v>
       </c>
       <c r="J13" s="14">
         <f>B6</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K13" s="13">
         <v>36</v>
       </c>
       <c r="L13" s="14">
         <f>B8</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M13" s="13">
         <v>46</v>
       </c>
       <c r="N13" s="14">
         <f>B10</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>19.999999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="13">
         <v>124</v>
       </c>
       <c r="B14" s="14">
         <f>B2+B5</f>
-        <v>19</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="C14" s="13">
         <v>1245</v>
       </c>
       <c r="D14" s="14">
         <f>B2+B5+B9</f>
-        <v>32</v>
+        <v>46.000000000000014</v>
       </c>
       <c r="E14" s="13">
         <v>12456</v>
       </c>
       <c r="F14" s="14">
         <f>B2+B5+B9+B11</f>
-        <v>49.5</v>
+        <v>60.000000000000007</v>
       </c>
       <c r="G14" s="13">
         <v>2456</v>
       </c>
       <c r="H14" s="14">
         <f>B5+B9+B11</f>
-        <v>39.5</v>
+        <v>44.000000000000007</v>
       </c>
       <c r="I14" s="13">
         <v>245</v>
       </c>
       <c r="J14" s="14">
         <f>B5+B9</f>
-        <v>22</v>
+        <v>30.000000000000014</v>
       </c>
       <c r="K14" s="13">
         <v>346</v>
       </c>
       <c r="L14" s="14">
         <f>B7+B10</f>
-        <v>30</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="M14" s="13">
         <v>456</v>
       </c>
       <c r="N14" s="14">
         <f>B9+B11</f>
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="13">
         <v>134</v>
       </c>
       <c r="B15" s="14">
         <f>B3+B7</f>
-        <v>24</v>
+        <v>19.000000000000004</v>
       </c>
       <c r="C15" s="13">
         <v>145</v>
       </c>
       <c r="D15" s="14">
         <f>B4+B9</f>
-        <v>37</v>
+        <v>46.000000000000014</v>
       </c>
       <c r="E15" s="13">
         <v>1246</v>
       </c>
       <c r="F15" s="14">
         <f>B2+B5+B10</f>
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G15" s="13">
         <v>246</v>
       </c>
       <c r="H15" s="14">
         <f>B5+B10</f>
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I15" s="13"/>
       <c r="K15" s="13">
@@ -10189,26 +9590,26 @@
       </c>
       <c r="L15" s="14">
         <f>B7+B9+B11</f>
-        <v>45.5</v>
+        <v>36</v>
       </c>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="13"/>
       <c r="C16" s="13">
         <v>1345</v>
       </c>
       <c r="D16" s="14">
         <f>B3+B7+B9</f>
-        <v>37</v>
+        <v>32.000000000000014</v>
       </c>
       <c r="E16" s="13">
         <v>146</v>
       </c>
       <c r="F16" s="14">
         <f>B4+B10</f>
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -10219,7 +9620,7 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -10228,7 +9629,7 @@
       </c>
       <c r="F17" s="14">
         <f>B4+B9+B11</f>
-        <v>54.5</v>
+        <v>60.000000000000007</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -10239,7 +9640,7 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -10248,7 +9649,7 @@
       </c>
       <c r="F18" s="14">
         <f>B3+B8</f>
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -10259,7 +9660,7 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -10295,14 +9696,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:AA36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView topLeftCell="E10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
@@ -10320,7 +9721,7 @@
     <col min="18" max="18" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:27">
       <c r="D3" t="s">
         <v>242</v>
       </c>
@@ -10330,18 +9731,18 @@
       <c r="F3" t="s">
         <v>244</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="45"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="55"/>
       <c r="Q3" s="22"/>
       <c r="R3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:27">
       <c r="C4" s="26" t="s">
         <v>245</v>
       </c>
@@ -10369,7 +9770,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:27">
       <c r="C5" s="26" t="s">
         <v>246</v>
       </c>
@@ -10402,7 +9803,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:27">
       <c r="C6" s="26" t="s">
         <v>247</v>
       </c>
@@ -10435,7 +9836,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:27">
       <c r="C7" s="26" t="s">
         <v>248</v>
       </c>
@@ -10471,7 +9872,7 @@
       <c r="Z7" s="28"/>
       <c r="AA7" s="28"/>
     </row>
-    <row r="8" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:27">
       <c r="C8" s="26" t="s">
         <v>249</v>
       </c>
@@ -10486,7 +9887,7 @@
       <c r="Z8" s="28"/>
       <c r="AA8" s="28"/>
     </row>
-    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:27">
       <c r="U9" s="28"/>
       <c r="V9" s="28"/>
       <c r="W9" s="28"/>
@@ -10495,7 +9896,7 @@
       <c r="Z9" s="28"/>
       <c r="AA9" s="28"/>
     </row>
-    <row r="10" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:27">
       <c r="U10" s="28"/>
       <c r="V10" s="28"/>
       <c r="W10" s="28"/>
@@ -10504,7 +9905,7 @@
       <c r="Z10" s="28"/>
       <c r="AA10" s="28"/>
     </row>
-    <row r="11" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:27">
       <c r="U11" s="28"/>
       <c r="V11" s="28"/>
       <c r="W11" s="28"/>
@@ -10513,7 +9914,7 @@
       <c r="Z11" s="28"/>
       <c r="AA11" s="28"/>
     </row>
-    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:27">
       <c r="C12" t="s">
         <v>250</v>
       </c>
@@ -10544,7 +9945,7 @@
       <c r="Z12" s="28"/>
       <c r="AA12" s="28"/>
     </row>
-    <row r="13" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:27">
       <c r="C13" t="s">
         <v>251</v>
       </c>
@@ -10571,7 +9972,7 @@
         <f>MAX(M13:O13)</f>
         <v>-6</v>
       </c>
-      <c r="R13" s="18">
+      <c r="R13" s="19">
         <f>(($D$8 * P13) + ((1-$D$8) * Q13))</f>
         <v>-13.2</v>
       </c>
@@ -10583,7 +9984,7 @@
       <c r="Z13" s="28"/>
       <c r="AA13" s="28"/>
     </row>
-    <row r="14" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:27">
       <c r="C14" t="s">
         <v>252</v>
       </c>
@@ -10610,12 +10011,12 @@
         <f t="shared" ref="Q14:Q15" si="2">MAX(M14:O14)</f>
         <v>-9</v>
       </c>
-      <c r="R14" s="21">
+      <c r="R14" s="43">
         <f>(($D$8 * P14) + ((1-$D$8) * Q14))</f>
         <v>-21.000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:27">
       <c r="L15" s="1" t="s">
         <v>265</v>
       </c>
@@ -10644,7 +10045,7 @@
         <v>-16.8</v>
       </c>
     </row>
-    <row r="16" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:27">
       <c r="C16" t="s">
         <v>253</v>
       </c>
@@ -10667,7 +10068,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21">
       <c r="C17" t="s">
         <v>254</v>
       </c>
@@ -10680,7 +10081,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21">
       <c r="C18" t="s">
         <v>255</v>
       </c>
@@ -10712,7 +10113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21">
       <c r="L19" s="1" t="s">
         <v>263</v>
       </c>
@@ -10744,7 +10145,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21">
       <c r="C20" t="s">
         <v>256</v>
       </c>
@@ -10776,7 +10177,7 @@
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21">
       <c r="C21" t="s">
         <v>257</v>
       </c>
@@ -10808,12 +10209,12 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="C22" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>260</v>
@@ -10841,7 +10242,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21">
       <c r="A27" s="1" t="s">
         <v>263</v>
       </c>
@@ -10881,7 +10282,7 @@
         <v>-13.05</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21">
       <c r="A28" s="1" t="s">
         <v>264</v>
       </c>
@@ -10921,7 +10322,7 @@
         <v>-13.649999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21">
       <c r="A29" s="1" t="s">
         <v>265</v>
       </c>
@@ -10961,7 +10362,7 @@
         <v>-15.75</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21">
       <c r="A30" s="25" t="s">
         <v>248</v>
       </c>
@@ -10992,7 +10393,7 @@
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>260</v>
@@ -11020,7 +10421,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
         <v>263</v>
       </c>
@@ -11060,7 +10461,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
         <v>264</v>
       </c>
@@ -11100,7 +10501,7 @@
         <v>4.1999999999999993</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
         <v>265</v>
       </c>
@@ -11140,7 +10541,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="25" t="s">
         <v>248</v>
       </c>
@@ -11180,14 +10581,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E16" sqref="E16:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
@@ -11197,238 +10598,238 @@
     <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="37" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="37" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="37" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53" t="s">
+    <row r="7" spans="1:8">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="41" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="54" t="s">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B8" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="42" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="52" t="s">
+    <row r="9" spans="1:8">
+      <c r="B9" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="E9" s="52">
-        <v>0</v>
-      </c>
-      <c r="F9" s="52">
+      <c r="E9" s="40">
+        <v>0</v>
+      </c>
+      <c r="F9" s="40">
         <v>1</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="40">
         <v>0.15000000000000002</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="40">
         <v>0.39999999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="52" t="s">
+    <row r="10" spans="1:8">
+      <c r="B10" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40">
         <v>1.2121212121212109E-2</v>
       </c>
-      <c r="E10" s="52">
-        <v>0</v>
-      </c>
-      <c r="F10" s="52">
+      <c r="E10" s="40">
+        <v>0</v>
+      </c>
+      <c r="F10" s="40">
         <v>1</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="40">
         <v>0.66666666666666641</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="40">
         <v>0.6428571428571429</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="50" t="s">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B11" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50">
-        <v>0</v>
-      </c>
-      <c r="E11" s="50">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38">
+        <v>0</v>
+      </c>
+      <c r="E11" s="38">
         <v>0.16363636363636369</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="38">
         <v>1</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11" s="38">
         <v>1E+30</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11" s="38">
         <v>0.16363636363636369</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1">
       <c r="A13" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53" t="s">
+    <row r="14" spans="1:8">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="H14" s="53" t="s">
+      <c r="H14" s="41" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="54" t="s">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B15" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="H15" s="54" t="s">
+      <c r="H15" s="42" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="52" t="s">
+    <row r="16" spans="1:8">
+      <c r="B16" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40">
         <v>1.8060606060606059</v>
       </c>
-      <c r="E16" s="52">
-        <v>0</v>
-      </c>
-      <c r="F16" s="52">
+      <c r="E16" s="40">
+        <v>0</v>
+      </c>
+      <c r="F16" s="40">
         <v>1</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="40">
         <v>0.80606060606060603</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="40">
         <v>1E+30</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="52" t="s">
+    <row r="17" spans="2:8">
+      <c r="B17" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40">
         <v>0.99999999999999989</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="40">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="40">
         <v>1</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="40">
         <v>1E+30</v>
       </c>
-      <c r="H17" s="52">
+      <c r="H17" s="40">
         <v>0.18181818181818163</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="50" t="s">
+    <row r="18" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B18" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50">
+      <c r="C18" s="38"/>
+      <c r="D18" s="38">
         <v>1</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="38">
         <v>3.6363636363636362E-2</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="38">
         <v>1</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18" s="38">
         <v>0.22222222222222193</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="38">
         <v>0.92361111111111105</v>
       </c>
     </row>
@@ -11439,20 +10840,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:N25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C25" sqref="C25:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14">
       <c r="C3" s="1">
         <v>0</v>
       </c>
@@ -11464,13 +10865,13 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14">
       <c r="F4" s="15">
         <f>D3+E3+C3</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14">
       <c r="B6" s="1" t="s">
         <v>263</v>
       </c>
@@ -11495,7 +10896,7 @@
       </c>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14">
       <c r="B7" s="1" t="s">
         <v>264</v>
       </c>
@@ -11520,7 +10921,7 @@
       </c>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14">
       <c r="B8" s="1" t="s">
         <v>265</v>
       </c>
@@ -11543,38 +10944,38 @@
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="51"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M9" s="51"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M10" s="51"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M8" s="39"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="M9" s="39"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="M10" s="39"/>
+    </row>
+    <row r="11" spans="2:14">
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14">
       <c r="D12">
         <f>1/F4</f>
         <v>6</v>
       </c>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14">
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14">
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C15" s="46">
+    <row r="15" spans="2:14">
+      <c r="C15" s="34">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="35">
         <v>1.2121212121212109E-2</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="36">
         <v>0</v>
       </c>
       <c r="F15">
@@ -11587,14 +10988,14 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14">
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="C17" s="17">
         <f>'2'!M5+'Поиск решения'!$A$20</f>
         <v>18</v>
@@ -11617,19 +11018,19 @@
       <c r="H17" s="17">
         <v>1</v>
       </c>
-      <c r="J17" s="51">
-        <v>0</v>
-      </c>
-      <c r="K17" s="51">
+      <c r="J17" s="39">
+        <v>0</v>
+      </c>
+      <c r="K17" s="39">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="L17" s="51">
+      <c r="L17" s="39">
         <v>3.6363636363636362E-2</v>
       </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="C18" s="17">
         <f>'2'!N5+'Поиск решения'!$A$20</f>
         <v>9</v>
@@ -11658,7 +11059,7 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="C19" s="17">
         <f>'2'!O5+'Поиск решения'!$A$20</f>
         <v>11</v>
@@ -11687,7 +11088,7 @@
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>24</v>
       </c>
@@ -11697,13 +11098,13 @@
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="D22">
         <f>1/F15</f>
         <v>9.7058823529411775</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="C24">
         <f>$D$22*C15</f>
         <v>0.88235294117647067</v>
@@ -11717,7 +11118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="C25">
         <f>J17*$D$22</f>
         <v>0</v>

--- a/MOptim/3.xlsx
+++ b/MOptim/3.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\University\MOptim\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="3555" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1 - до" sheetId="1" r:id="rId1"/>
@@ -36,16 +41,16 @@
     <definedName name="solver_itr" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="8" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'1 - оптимизация'!$AF$6:$AF$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'1 - оптимизация'!$AF$29:$AF$40</definedName>
     <definedName name="solver_lhs1" localSheetId="6" hidden="1">'2'!$Y$10</definedName>
     <definedName name="solver_lhs1" localSheetId="8" hidden="1">'Поиск решения'!$F$17:$F$19</definedName>
-    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'1 - оптимизация'!$AF$9:$AF$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'1 - оптимизация'!$AF$19:$AF$28</definedName>
     <definedName name="solver_lhs2" localSheetId="6" hidden="1">'2'!$Y$11</definedName>
     <definedName name="solver_lhs2" localSheetId="8" hidden="1">'Поиск решения'!$F$7</definedName>
-    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'1 - оптимизация'!$AF$19:$AF$28</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'1 - оптимизация'!$AF$6:$AF$8</definedName>
     <definedName name="solver_lhs3" localSheetId="6" hidden="1">'2'!$Y$12</definedName>
     <definedName name="solver_lhs3" localSheetId="8" hidden="1">'Поиск решения'!$F$8</definedName>
-    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'1 - оптимизация'!$AF$29:$AF$40</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'1 - оптимизация'!$AF$9:$AF$18</definedName>
     <definedName name="solver_lhs5" localSheetId="4" hidden="1">'1 - оптимизация'!$AF$6</definedName>
     <definedName name="solver_lhs6" localSheetId="4" hidden="1">'1 - оптимизация'!$AF$27:$AF$38</definedName>
     <definedName name="solver_lhs7" localSheetId="4" hidden="1">'1 - оптимизация'!$AF$7:$AF$16</definedName>
@@ -84,13 +89,13 @@
     <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="8" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="8" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="8" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="8" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="4" hidden="1">3</definedName>
@@ -98,16 +103,16 @@
     <definedName name="solver_rel6" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel7" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel8" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="4" hidden="1">'1 - оптимизация'!$AH$6:$AH$8</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">'1 - оптимизация'!$AH$29:$AH$40</definedName>
     <definedName name="solver_rhs1" localSheetId="6" hidden="1">'2'!$AA$10</definedName>
     <definedName name="solver_rhs1" localSheetId="8" hidden="1">'Поиск решения'!$H$17:$H$19</definedName>
-    <definedName name="solver_rhs2" localSheetId="4" hidden="1">'1 - оптимизация'!$AH$9:$AH$18</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">'1 - оптимизация'!$AH$19:$AH$28</definedName>
     <definedName name="solver_rhs2" localSheetId="6" hidden="1">'2'!$AA$11</definedName>
     <definedName name="solver_rhs2" localSheetId="8" hidden="1">'Поиск решения'!$H$7</definedName>
-    <definedName name="solver_rhs3" localSheetId="4" hidden="1">'1 - оптимизация'!$AH$19:$AH$28</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">'1 - оптимизация'!$AH$6:$AH$8</definedName>
     <definedName name="solver_rhs3" localSheetId="6" hidden="1">'2'!$AA$12</definedName>
     <definedName name="solver_rhs3" localSheetId="8" hidden="1">'Поиск решения'!$H$8</definedName>
-    <definedName name="solver_rhs4" localSheetId="4" hidden="1">'1 - оптимизация'!$AH$29:$AH$40</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">'1 - оптимизация'!$AH$9:$AH$18</definedName>
     <definedName name="solver_rhs5" localSheetId="4" hidden="1">'1 - оптимизация'!$AH$6</definedName>
     <definedName name="solver_rhs6" localSheetId="4" hidden="1">'1 - оптимизация'!$AH$27:$AH$38</definedName>
     <definedName name="solver_rhs7" localSheetId="4" hidden="1">'1 - оптимизация'!$AH$7:$AH$16</definedName>
@@ -143,7 +148,7 @@
     <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="8" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1059,8 +1064,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1583,9 +1588,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
-    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1601,8 +1606,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1638,6 +1653,7 @@
           <c:y val="2.7777777777777801E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1646,11 +1662,13 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1668,6 +1686,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1695,11 +1714,17 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="0"/>
@@ -1783,7 +1808,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A445-444A-976A-E7AA9A1F8132}"/>
             </c:ext>
@@ -1806,6 +1831,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1833,11 +1859,17 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="0"/>
@@ -1921,7 +1953,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A445-444A-976A-E7AA9A1F8132}"/>
             </c:ext>
@@ -1944,6 +1976,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1971,11 +2004,17 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="0"/>
@@ -2059,12 +2098,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A445-444A-976A-E7AA9A1F8132}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
         <c:axId val="148243584"/>
@@ -2075,9 +2122,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2111,7 +2160,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="148245120"/>
@@ -2119,12 +2168,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="148245120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2153,6 +2204,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2178,7 +2230,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="148243584"/>
@@ -2196,6 +2248,7 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2220,12 +2273,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2249,7 +2303,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2261,8 +2315,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2285,18 +2349,22 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Время до начала работы</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2312,11 +2380,17 @@
                 <a:pPr>
                   <a:defRPr lang="en-US"/>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="0"/>
@@ -2377,10 +2451,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.999999999999998</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.999999999999998</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10</c:v>
@@ -2389,18 +2463,18 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.000000000000007</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.000000000000007</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.000000000000014</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1D8B-4415-A1FF-BE0E3F3D7D7F}"/>
             </c:ext>
@@ -2412,6 +2486,7 @@
           <c:tx>
             <c:v>Продолжительность работы</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2427,11 +2502,17 @@
                 <a:pPr>
                   <a:defRPr lang="en-US"/>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="0"/>
@@ -2483,39 +2564,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.999999999999998</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.000000000000007</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.000000000000007</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0000000000000036</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.000000000000007</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.999999999999993</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.999999999999993</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1D8B-4415-A1FF-BE0E3F3D7D7F}"/>
             </c:ext>
@@ -2527,6 +2608,7 @@
           <c:tx>
             <c:v>Резерв работы</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2542,11 +2624,17 @@
                 <a:pPr>
                   <a:defRPr lang="en-US"/>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="0"/>
@@ -2601,7 +2689,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.000000000000007</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2610,19 +2698,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.000000000000014</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.000000000000004</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.000000000000007</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0000000000000071</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2630,12 +2718,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1D8B-4415-A1FF-BE0E3F3D7D7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="148313600"/>
         <c:axId val="148315136"/>
@@ -2645,8 +2742,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2655,7 +2755,7 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="148315136"/>
@@ -2663,15 +2763,19 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="148315136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2680,7 +2784,7 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="148313600"/>
@@ -2700,6 +2804,7 @@
           <c:h val="0.25115157480314959"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2707,12 +2812,13 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2793,9 +2899,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2833,9 +2939,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2867,9 +2973,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2901,9 +3008,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3076,20 +3184,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -3139,7 +3247,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3204,7 +3312,7 @@
         <v>Критич. Путь</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3271,7 +3379,7 @@
         <v>Есть резерв</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3338,7 +3446,7 @@
         <v>Есть резерв</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3405,7 +3513,7 @@
         <v>Критич. Путь</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3472,7 +3580,7 @@
         <v>Есть резерв</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3539,7 +3647,7 @@
         <v>Есть резерв</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3591,7 +3699,7 @@
         <v>Есть резерв</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3643,7 +3751,7 @@
         <v>Критич. Путь</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3695,7 +3803,7 @@
         <v>Есть резерв</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1">
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
@@ -3747,7 +3855,7 @@
         <v>Критич. Путь</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1">
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>25</v>
       </c>
@@ -3777,7 +3885,7 @@
       </c>
       <c r="N12" s="45"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14</v>
       </c>
@@ -3828,7 +3936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>124</v>
       </c>
@@ -3879,7 +3987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>134</v>
       </c>
@@ -3918,7 +4026,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>1345</v>
       </c>
@@ -3934,7 +4042,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="5:6">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17">
         <v>1456</v>
       </c>
@@ -3943,7 +4051,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="5:6">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18">
         <v>136</v>
       </c>
@@ -3952,7 +4060,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="5:6">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19">
         <v>1346</v>
       </c>
@@ -3961,7 +4069,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="5:6">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20">
         <v>13456</v>
       </c>
@@ -3986,12 +4094,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A42" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
@@ -4002,27 +4110,27 @@
     <col min="7" max="7" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>76</v>
       </c>
@@ -4036,7 +4144,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>86</v>
       </c>
@@ -4050,12 +4158,12 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>76</v>
       </c>
@@ -4069,7 +4177,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>88</v>
       </c>
@@ -4083,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>90</v>
       </c>
@@ -4097,7 +4205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>92</v>
       </c>
@@ -4111,7 +4219,7 @@
         <v>16.500000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>94</v>
       </c>
@@ -4125,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>96</v>
       </c>
@@ -4139,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>98</v>
       </c>
@@ -4153,7 +4261,7 @@
         <v>19.499999999999996</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>100</v>
       </c>
@@ -4167,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>102</v>
       </c>
@@ -4181,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>104</v>
       </c>
@@ -4195,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>106</v>
       </c>
@@ -4209,7 +4317,7 @@
         <v>4.0000000000000036</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>108</v>
       </c>
@@ -4223,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>110</v>
       </c>
@@ -4237,7 +4345,7 @@
         <v>5.9999999999999991</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>112</v>
       </c>
@@ -4251,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>114</v>
       </c>
@@ -4265,7 +4373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>116</v>
       </c>
@@ -4279,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>118</v>
       </c>
@@ -4293,7 +4401,7 @@
         <v>21.05</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>120</v>
       </c>
@@ -4307,7 +4415,7 @@
         <v>14.049999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>122</v>
       </c>
@@ -4321,7 +4429,7 @@
         <v>21.05</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>124</v>
       </c>
@@ -4335,7 +4443,7 @@
         <v>6.0000000000000888</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>126</v>
       </c>
@@ -4349,7 +4457,7 @@
         <v>16.999999999987608</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>128</v>
       </c>
@@ -4363,7 +4471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>130</v>
       </c>
@@ -4377,7 +4485,7 @@
         <v>21.05</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>132</v>
       </c>
@@ -4391,7 +4499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>134</v>
       </c>
@@ -4405,7 +4513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>136</v>
       </c>
@@ -4419,7 +4527,7 @@
         <v>21.050000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>138</v>
       </c>
@@ -4433,7 +4541,7 @@
         <v>33.050000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>140</v>
       </c>
@@ -4447,7 +4555,7 @@
         <v>21.05</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>142</v>
       </c>
@@ -4461,7 +4569,7 @@
         <v>34.050000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>144</v>
       </c>
@@ -4475,7 +4583,7 @@
         <v>33.050000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1">
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>146</v>
       </c>
@@ -4489,12 +4597,12 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1">
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1">
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
         <v>76</v>
       </c>
@@ -4514,7 +4622,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
         <v>148</v>
       </c>
@@ -4534,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>151</v>
       </c>
@@ -4554,7 +4662,7 @@
         <v>0.99999999999999911</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
         <v>154</v>
       </c>
@@ -4574,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>156</v>
       </c>
@@ -4594,7 +4702,7 @@
         <v>1.0500000000000007</v>
       </c>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>158</v>
       </c>
@@ -4614,7 +4722,7 @@
         <v>2.0000000000000018</v>
       </c>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
         <v>160</v>
       </c>
@@ -4634,7 +4742,7 @@
         <v>1.9999999999875193</v>
       </c>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
         <v>162</v>
       </c>
@@ -4654,7 +4762,7 @@
         <v>1.0500000000000007</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>164</v>
       </c>
@@ -4674,7 +4782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>166</v>
       </c>
@@ -4694,7 +4802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>168</v>
       </c>
@@ -4714,7 +4822,7 @@
         <v>1.0000000000000036</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
         <v>170</v>
       </c>
@@ -4734,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
         <v>172</v>
       </c>
@@ -4754,7 +4862,7 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
         <v>174</v>
       </c>
@@ -4774,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>176</v>
       </c>
@@ -4794,7 +4902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>178</v>
       </c>
@@ -4814,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
         <v>180</v>
       </c>
@@ -4834,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
         <v>182</v>
       </c>
@@ -4854,7 +4962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
         <v>184</v>
       </c>
@@ -4874,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
         <v>186</v>
       </c>
@@ -4894,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>188</v>
       </c>
@@ -4914,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
         <v>190</v>
       </c>
@@ -4934,7 +5042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
         <v>192</v>
       </c>
@@ -4954,7 +5062,7 @@
         <v>16.050000000012396</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
         <v>194</v>
       </c>
@@ -4974,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
         <v>196</v>
       </c>
@@ -4994,7 +5102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
         <v>198</v>
       </c>
@@ -5014,7 +5122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
         <v>200</v>
       </c>
@@ -5034,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
         <v>202</v>
       </c>
@@ -5054,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
         <v>204</v>
       </c>
@@ -5074,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
         <v>206</v>
       </c>
@@ -5094,7 +5202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
         <v>208</v>
       </c>
@@ -5114,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
         <v>210</v>
       </c>
@@ -5134,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
         <v>212</v>
       </c>
@@ -5154,7 +5262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
         <v>214</v>
       </c>
@@ -5174,7 +5282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>108</v>
       </c>
@@ -5194,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
         <v>112</v>
       </c>
@@ -5214,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="15.75" thickBot="1">
+    <row r="82" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="4" t="s">
         <v>116</v>
       </c>
@@ -5240,14 +5348,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
@@ -5259,27 +5367,27 @@
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
@@ -5298,7 +5406,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>76</v>
       </c>
@@ -5321,7 +5429,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>88</v>
       </c>
@@ -5344,7 +5452,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>90</v>
       </c>
@@ -5367,7 +5475,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>92</v>
       </c>
@@ -5390,7 +5498,7 @@
         <v>9.9999999999999992E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>94</v>
       </c>
@@ -5413,7 +5521,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>96</v>
       </c>
@@ -5436,7 +5544,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>98</v>
       </c>
@@ -5459,7 +5567,7 @@
         <v>6.0000000000000019E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>100</v>
       </c>
@@ -5482,7 +5590,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>102</v>
       </c>
@@ -5505,7 +5613,7 @@
         <v>2.4999999999999991E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>104</v>
       </c>
@@ -5528,7 +5636,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>106</v>
       </c>
@@ -5551,7 +5659,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>108</v>
       </c>
@@ -5574,7 +5682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>110</v>
       </c>
@@ -5597,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>112</v>
       </c>
@@ -5620,7 +5728,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>114</v>
       </c>
@@ -5643,7 +5751,7 @@
         <v>0.37500000000000006</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>116</v>
       </c>
@@ -5666,7 +5774,7 @@
         <v>0.24999999999999997</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>118</v>
       </c>
@@ -5689,7 +5797,7 @@
         <v>0.3333333333333332</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>120</v>
       </c>
@@ -5712,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>122</v>
       </c>
@@ -5735,7 +5843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>124</v>
       </c>
@@ -5758,7 +5866,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>126</v>
       </c>
@@ -5781,7 +5889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>128</v>
       </c>
@@ -5804,7 +5912,7 @@
         <v>0.37500000000000006</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>130</v>
       </c>
@@ -5827,7 +5935,7 @@
         <v>0.3333333333333332</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>132</v>
       </c>
@@ -5850,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>134</v>
       </c>
@@ -5873,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>136</v>
       </c>
@@ -5896,7 +6004,7 @@
         <v>0.3333333333333332</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>138</v>
       </c>
@@ -5919,7 +6027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>140</v>
       </c>
@@ -5942,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>142</v>
       </c>
@@ -5965,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>144</v>
       </c>
@@ -5988,7 +6096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>146</v>
       </c>
@@ -6011,12 +6119,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1">
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9" t="s">
@@ -6035,7 +6143,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1">
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>76</v>
       </c>
@@ -6058,7 +6166,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>148</v>
       </c>
@@ -6081,7 +6189,7 @@
         <v>25.999999999999993</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>151</v>
       </c>
@@ -6104,7 +6212,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
         <v>154</v>
       </c>
@@ -6127,7 +6235,7 @@
         <v>2.8000000000000016</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>156</v>
       </c>
@@ -6150,7 +6258,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
         <v>158</v>
       </c>
@@ -6173,7 +6281,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>160</v>
       </c>
@@ -6196,7 +6304,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
         <v>162</v>
       </c>
@@ -6219,7 +6327,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>164</v>
       </c>
@@ -6242,7 +6350,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>166</v>
       </c>
@@ -6265,7 +6373,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
         <v>168</v>
       </c>
@@ -6288,7 +6396,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
         <v>170</v>
       </c>
@@ -6311,7 +6419,7 @@
         <v>12.999999999999996</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>172</v>
       </c>
@@ -6334,7 +6442,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>174</v>
       </c>
@@ -6357,7 +6465,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>176</v>
       </c>
@@ -6380,7 +6488,7 @@
         <v>1.400000000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
         <v>178</v>
       </c>
@@ -6403,7 +6511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
         <v>180</v>
       </c>
@@ -6426,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
         <v>182</v>
       </c>
@@ -6449,7 +6557,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>184</v>
       </c>
@@ -6472,7 +6580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>186</v>
       </c>
@@ -6495,7 +6603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
         <v>188</v>
       </c>
@@ -6518,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
         <v>190</v>
       </c>
@@ -6541,7 +6649,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
         <v>192</v>
       </c>
@@ -6564,7 +6672,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
         <v>194</v>
       </c>
@@ -6587,7 +6695,7 @@
         <v>16.05</v>
       </c>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>196</v>
       </c>
@@ -6610,7 +6718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
         <v>198</v>
       </c>
@@ -6633,7 +6741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
         <v>200</v>
       </c>
@@ -6656,7 +6764,7 @@
         <v>4.2000000000000037</v>
       </c>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
         <v>202</v>
       </c>
@@ -6679,7 +6787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:8">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
         <v>204</v>
       </c>
@@ -6702,7 +6810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
         <v>206</v>
       </c>
@@ -6725,7 +6833,7 @@
         <v>1.400000000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:8">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
         <v>208</v>
       </c>
@@ -6748,7 +6856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
         <v>210</v>
       </c>
@@ -6771,7 +6879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
         <v>212</v>
       </c>
@@ -6794,7 +6902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="15.75" thickBot="1">
+    <row r="75" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="4" t="s">
         <v>214</v>
       </c>
@@ -6823,14 +6931,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
@@ -6844,30 +6952,30 @@
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="6" spans="1:10">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
         <v>236</v>
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>76</v>
       </c>
@@ -6878,7 +6986,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>86</v>
       </c>
@@ -6889,8 +6997,8 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="11" spans="1:10">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
         <v>237</v>
@@ -6909,7 +7017,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>76</v>
       </c>
@@ -6932,7 +7040,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>88</v>
       </c>
@@ -6955,7 +7063,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>90</v>
       </c>
@@ -6978,7 +7086,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>92</v>
       </c>
@@ -7001,7 +7109,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>94</v>
       </c>
@@ -7024,7 +7132,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>96</v>
       </c>
@@ -7047,7 +7155,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>98</v>
       </c>
@@ -7070,7 +7178,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>100</v>
       </c>
@@ -7093,7 +7201,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>102</v>
       </c>
@@ -7116,7 +7224,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>104</v>
       </c>
@@ -7139,7 +7247,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>106</v>
       </c>
@@ -7162,7 +7270,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>108</v>
       </c>
@@ -7185,7 +7293,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>110</v>
       </c>
@@ -7208,7 +7316,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>112</v>
       </c>
@@ -7231,7 +7339,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>114</v>
       </c>
@@ -7254,7 +7362,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>116</v>
       </c>
@@ -7277,7 +7385,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>118</v>
       </c>
@@ -7300,7 +7408,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>120</v>
       </c>
@@ -7323,7 +7431,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>122</v>
       </c>
@@ -7346,7 +7454,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>124</v>
       </c>
@@ -7369,7 +7477,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>126</v>
       </c>
@@ -7392,7 +7500,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>128</v>
       </c>
@@ -7415,7 +7523,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>130</v>
       </c>
@@ -7438,7 +7546,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>132</v>
       </c>
@@ -7461,7 +7569,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>134</v>
       </c>
@@ -7484,7 +7592,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>136</v>
       </c>
@@ -7507,7 +7615,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>138</v>
       </c>
@@ -7530,7 +7638,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>140</v>
       </c>
@@ -7553,7 +7661,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>142</v>
       </c>
@@ -7576,7 +7684,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>144</v>
       </c>
@@ -7599,7 +7707,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="15.75" thickBot="1">
+    <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>146</v>
       </c>
@@ -7628,19 +7736,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK9" sqref="AK9:AK18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -7744,7 +7852,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -7755,10 +7863,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>19.999999999999957</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>4.9999999999999751</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -7770,19 +7878,19 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.9999999999999805</v>
+        <v>10</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>39.999999999999972</v>
+        <v>40</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.999999999999998</v>
+        <v>16</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -7794,16 +7902,16 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>33.000000000000007</v>
+        <v>33</v>
       </c>
       <c r="R2">
         <v>16</v>
       </c>
       <c r="S2">
-        <v>33.000000000000007</v>
+        <v>33</v>
       </c>
       <c r="T2">
-        <v>15.999999999999998</v>
+        <v>16</v>
       </c>
       <c r="U2">
         <v>36</v>
@@ -7812,7 +7920,7 @@
         <v>10</v>
       </c>
       <c r="W2">
-        <v>19.000000000000004</v>
+        <v>19</v>
       </c>
       <c r="X2">
         <v>10</v>
@@ -7824,10 +7932,10 @@
         <v>33</v>
       </c>
       <c r="AA2">
-        <v>46.000000000000007</v>
+        <v>46</v>
       </c>
       <c r="AB2">
-        <v>33.000000000000007</v>
+        <v>33</v>
       </c>
       <c r="AC2">
         <v>53</v>
@@ -7836,20 +7944,20 @@
         <v>46</v>
       </c>
       <c r="AE2">
-        <v>59.999999999999993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -7885,13 +7993,13 @@
       </c>
       <c r="AF5">
         <f>SUMPRODUCT(B5:AE5,B2:AE2)</f>
-        <v>86.999999999999886</v>
+        <v>87</v>
       </c>
       <c r="AG5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -7900,7 +8008,7 @@
       </c>
       <c r="AF6">
         <f>SUMPRODUCT($B$2:$AE$2,B6:AE6)</f>
-        <v>59.999999999999993</v>
+        <v>60</v>
       </c>
       <c r="AG6" t="s">
         <v>69</v>
@@ -7909,7 +8017,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -7927,7 +8035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -7945,7 +8053,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -7957,7 +8065,7 @@
       </c>
       <c r="AF9">
         <f t="shared" ref="AF9:AF40" si="1">SUMPRODUCT($B$2:$AE$2,B9:AE9)</f>
-        <v>15.999999999999998</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="s">
         <v>70</v>
@@ -7965,8 +8073,20 @@
       <c r="AH9">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:34">
+      <c r="AI9">
+        <f>AF9</f>
+        <v>16</v>
+      </c>
+      <c r="AJ9">
+        <f>AF19</f>
+        <v>19</v>
+      </c>
+      <c r="AK9">
+        <f>AJ9-AI9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -7986,8 +8106,20 @@
       <c r="AH10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:34">
+      <c r="AI10">
+        <f t="shared" ref="AI10:AI18" si="2">AF10</f>
+        <v>10</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" ref="AJ10:AJ18" si="3">AF20</f>
+        <v>10</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" ref="AK10:AK18" si="4">AJ10-AI10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -7999,7 +8131,7 @@
       </c>
       <c r="AF11">
         <f t="shared" si="1"/>
-        <v>33.000000000000007</v>
+        <v>33</v>
       </c>
       <c r="AG11" t="s">
         <v>70</v>
@@ -8007,8 +8139,20 @@
       <c r="AH11">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:34">
+      <c r="AI11">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -8020,7 +8164,7 @@
       </c>
       <c r="AF12">
         <f t="shared" si="1"/>
-        <v>17.000000000000007</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="s">
         <v>70</v>
@@ -8028,8 +8172,20 @@
       <c r="AH12">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:34">
+      <c r="AI12">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -8049,8 +8205,20 @@
       <c r="AH13">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:34">
+      <c r="AI13">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -8062,7 +8230,7 @@
       </c>
       <c r="AF14">
         <f t="shared" si="1"/>
-        <v>9.0000000000000036</v>
+        <v>9</v>
       </c>
       <c r="AG14" t="s">
         <v>70</v>
@@ -8070,8 +8238,20 @@
       <c r="AH14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:34">
+      <c r="AI14">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -8091,8 +8271,20 @@
       <c r="AH15">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:34">
+      <c r="AI15">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -8104,7 +8296,7 @@
       </c>
       <c r="AF16">
         <f t="shared" si="1"/>
-        <v>13.000000000000007</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="s">
         <v>70</v>
@@ -8112,8 +8304,20 @@
       <c r="AH16">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:34">
+      <c r="AI16">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -8125,7 +8329,7 @@
       </c>
       <c r="AF17">
         <f t="shared" si="1"/>
-        <v>19.999999999999993</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="s">
         <v>70</v>
@@ -8133,8 +8337,20 @@
       <c r="AH17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:34">
+      <c r="AI17">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -8146,7 +8362,7 @@
       </c>
       <c r="AF18">
         <f t="shared" si="1"/>
-        <v>13.999999999999993</v>
+        <v>14</v>
       </c>
       <c r="AG18" t="s">
         <v>70</v>
@@ -8154,8 +8370,20 @@
       <c r="AH18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:34">
+      <c r="AI18">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -8188,7 +8416,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
@@ -8221,7 +8449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
@@ -8254,7 +8482,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -8287,7 +8515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -8320,7 +8548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -8344,7 +8572,7 @@
       </c>
       <c r="AF24">
         <f t="shared" si="1"/>
-        <v>9.0000000000000036</v>
+        <v>9</v>
       </c>
       <c r="AG24" t="s">
         <v>71</v>
@@ -8353,7 +8581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -8386,7 +8614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -8419,7 +8647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -8443,7 +8671,7 @@
       </c>
       <c r="AF27">
         <f t="shared" si="1"/>
-        <v>19.999999999999993</v>
+        <v>20</v>
       </c>
       <c r="AG27" t="s">
         <v>71</v>
@@ -8452,7 +8680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
@@ -8476,7 +8704,7 @@
       </c>
       <c r="AF28">
         <f t="shared" si="1"/>
-        <v>17.999999999999993</v>
+        <v>18</v>
       </c>
       <c r="AG28" t="s">
         <v>71</v>
@@ -8485,7 +8713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
@@ -8497,7 +8725,7 @@
       </c>
       <c r="AF29">
         <f t="shared" si="1"/>
-        <v>1.7763568394002505E-15</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="s">
         <v>70</v>
@@ -8506,7 +8734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
@@ -8527,7 +8755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
@@ -8548,7 +8776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>27</v>
       </c>
@@ -8569,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>28</v>
       </c>
@@ -8581,7 +8809,7 @@
       </c>
       <c r="AF33">
         <f t="shared" si="1"/>
-        <v>-7.1054273576010019E-15</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="s">
         <v>70</v>
@@ -8590,7 +8818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>29</v>
       </c>
@@ -8602,7 +8830,7 @@
       </c>
       <c r="AF34">
         <f t="shared" si="1"/>
-        <v>-7.1054273576010019E-15</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="s">
         <v>70</v>
@@ -8611,7 +8839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>30</v>
       </c>
@@ -8623,7 +8851,7 @@
       </c>
       <c r="AF35">
         <f t="shared" si="1"/>
-        <v>13.999999999999996</v>
+        <v>14</v>
       </c>
       <c r="AG35" t="s">
         <v>70</v>
@@ -8632,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>31</v>
       </c>
@@ -8653,7 +8881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>32</v>
       </c>
@@ -8674,7 +8902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>33</v>
       </c>
@@ -8686,7 +8914,7 @@
       </c>
       <c r="AF38">
         <f t="shared" si="1"/>
-        <v>14.000000000000004</v>
+        <v>14</v>
       </c>
       <c r="AG38" t="s">
         <v>70</v>
@@ -8695,7 +8923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>34</v>
       </c>
@@ -8716,7 +8944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>35</v>
       </c>
@@ -8728,7 +8956,7 @@
       </c>
       <c r="AF40">
         <f t="shared" si="1"/>
-        <v>-7.1054273576010019E-15</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="s">
         <v>70</v>
@@ -8743,19 +8971,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -8805,13 +9033,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <f>'1 - оптимизация'!AF9</f>
-        <v>15.999999999999998</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -8832,7 +9060,7 @@
       </c>
       <c r="H2">
         <f>G2+B2</f>
-        <v>15.999999999999998</v>
+        <v>16</v>
       </c>
       <c r="I2">
         <f>E3</f>
@@ -8860,7 +9088,7 @@
       </c>
       <c r="Q2" s="17">
         <f>B2</f>
-        <v>15.999999999999998</v>
+        <v>16</v>
       </c>
       <c r="R2" s="1">
         <f>K2</f>
@@ -8871,7 +9099,7 @@
         <v>Критич. Путь</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -8884,7 +9112,7 @@
       </c>
       <c r="D3" s="1">
         <f>B2</f>
-        <v>15.999999999999998</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1">
         <f>D7-(MAX(H13:H15))</f>
@@ -8904,15 +9132,15 @@
       </c>
       <c r="I3">
         <f>E4</f>
-        <v>24.000000000000007</v>
+        <v>24</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J11" si="3">I3-B3</f>
-        <v>14.000000000000007</v>
+        <v>14</v>
       </c>
       <c r="K3">
         <f>$I$3-$G$3-$B$3</f>
-        <v>14.000000000000007</v>
+        <v>14</v>
       </c>
       <c r="L3">
         <f>D4-E2-B3</f>
@@ -8920,7 +9148,7 @@
       </c>
       <c r="M3">
         <f>E4-E2-B3</f>
-        <v>14.000000000000007</v>
+        <v>14</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" ref="P3:P4" si="4">$D$2</f>
@@ -8932,20 +9160,20 @@
       </c>
       <c r="R3" s="1">
         <f t="shared" ref="R3:R11" si="6">K3</f>
-        <v>14.000000000000007</v>
+        <v>14</v>
       </c>
       <c r="S3" t="str">
         <f t="shared" ref="S3:S11" si="7">IF(R3=0,"Критич. Путь", "Есть резерв")</f>
         <v>Есть резерв</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <f>'1 - оптимизация'!AF11</f>
-        <v>33.000000000000007</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -8956,11 +9184,11 @@
       </c>
       <c r="E4" s="1">
         <f>D7-MAX(L13:L15)</f>
-        <v>24.000000000000007</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>14.000000000000007</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
@@ -8968,11 +9196,11 @@
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>33.000000000000007</v>
+        <v>33</v>
       </c>
       <c r="I4">
         <f>E5</f>
-        <v>33.000000000000007</v>
+        <v>33</v>
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
@@ -8996,7 +9224,7 @@
       </c>
       <c r="Q4" s="17">
         <f t="shared" si="5"/>
-        <v>33.000000000000007</v>
+        <v>33</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
@@ -9007,24 +9235,24 @@
         <v>Критич. Путь</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <f>'1 - оптимизация'!AF12</f>
-        <v>17.000000000000007</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
       </c>
       <c r="D5" s="1">
         <f>MAX(B13:B15)</f>
-        <v>33.000000000000007</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1">
         <f>D7-MAX(N13:N14)</f>
-        <v>33.000000000000007</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
@@ -9032,15 +9260,15 @@
       </c>
       <c r="G5">
         <f>$D$3</f>
-        <v>15.999999999999998</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>33.000000000000007</v>
+        <v>33</v>
       </c>
       <c r="I5">
         <f>E5</f>
-        <v>33.000000000000007</v>
+        <v>33</v>
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
@@ -9060,11 +9288,11 @@
       </c>
       <c r="P5" s="1">
         <f>$D$3</f>
-        <v>15.999999999999998</v>
+        <v>16</v>
       </c>
       <c r="Q5" s="17">
         <f t="shared" si="5"/>
-        <v>17.000000000000007</v>
+        <v>17</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="6"/>
@@ -9075,7 +9303,7 @@
         <v>Критич. Путь</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -9088,11 +9316,11 @@
       </c>
       <c r="D6" s="1">
         <f>MAX(D13:D16)</f>
-        <v>46.000000000000014</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1">
         <f>D7-B11</f>
-        <v>46.000000000000014</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
@@ -9100,7 +9328,7 @@
       </c>
       <c r="G6">
         <f>$D$3</f>
-        <v>15.999999999999998</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
@@ -9108,27 +9336,27 @@
       </c>
       <c r="I6">
         <f>E6</f>
-        <v>46.000000000000014</v>
+        <v>46</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>26.000000000000014</v>
+        <v>26</v>
       </c>
       <c r="K6">
         <f>$I$6-$G$6-$B$6</f>
-        <v>10.000000000000014</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <f>D6-E3-B6</f>
-        <v>10.000000000000014</v>
+        <v>10</v>
       </c>
       <c r="M6">
         <f>E6-E3-B6</f>
-        <v>10.000000000000014</v>
+        <v>10</v>
       </c>
       <c r="P6" s="1">
         <f>$D$3</f>
-        <v>15.999999999999998</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="17">
         <f t="shared" si="5"/>
@@ -9136,31 +9364,31 @@
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>10.000000000000014</v>
+        <v>10</v>
       </c>
       <c r="S6" t="str">
         <f t="shared" si="7"/>
         <v>Есть резерв</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <f>'1 - оптимизация'!AF14</f>
-        <v>9.0000000000000036</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
       </c>
       <c r="D7" s="15">
         <f>MAX(F13:F20)</f>
-        <v>60.000000000000007</v>
+        <v>60</v>
       </c>
       <c r="E7" s="1">
         <f>D7-0</f>
-        <v>60.000000000000007</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
@@ -9172,19 +9400,19 @@
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>19.000000000000004</v>
+        <v>19</v>
       </c>
       <c r="I7">
         <f>E5</f>
-        <v>33.000000000000007</v>
+        <v>33</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>24.000000000000004</v>
+        <v>24</v>
       </c>
       <c r="K7">
         <f>$I$7-$G$7-$B$7</f>
-        <v>14.000000000000004</v>
+        <v>14</v>
       </c>
       <c r="L7">
         <f>D5-E4-B7</f>
@@ -9200,18 +9428,18 @@
       </c>
       <c r="Q7" s="17">
         <f t="shared" si="5"/>
-        <v>9.0000000000000036</v>
+        <v>9</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>14.000000000000004</v>
+        <v>14</v>
       </c>
       <c r="S7" t="str">
         <f t="shared" si="7"/>
         <v>Есть резерв</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -9229,15 +9457,15 @@
       </c>
       <c r="I8">
         <f>E7</f>
-        <v>60.000000000000007</v>
+        <v>60</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>38.000000000000007</v>
+        <v>38</v>
       </c>
       <c r="K8">
         <f>$I$8-$G$8-$B$8</f>
-        <v>28.000000000000007</v>
+        <v>28</v>
       </c>
       <c r="L8">
         <f>D7-E4-B8</f>
@@ -9257,36 +9485,36 @@
       </c>
       <c r="R8" s="1">
         <f t="shared" si="6"/>
-        <v>28.000000000000007</v>
+        <v>28</v>
       </c>
       <c r="S8" t="str">
         <f t="shared" si="7"/>
         <v>Есть резерв</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <f>'1 - оптимизация'!AF16</f>
-        <v>13.000000000000007</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <f>$D$5</f>
-        <v>33.000000000000007</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>46.000000000000014</v>
+        <v>46</v>
       </c>
       <c r="I9">
         <f>E6</f>
-        <v>46.000000000000014</v>
+        <v>46</v>
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>33.000000000000007</v>
+        <v>33</v>
       </c>
       <c r="K9">
         <f>$I$9-$G$9-$B$9</f>
@@ -9302,11 +9530,11 @@
       </c>
       <c r="P9" s="1">
         <f>$D$5</f>
-        <v>33.000000000000007</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="17">
         <f t="shared" si="5"/>
-        <v>13.000000000000007</v>
+        <v>13</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="6"/>
@@ -9317,17 +9545,17 @@
         <v>Критич. Путь</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <f>'1 - оптимизация'!AF17</f>
-        <v>19.999999999999993</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <f>$D$5</f>
-        <v>33.000000000000007</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
@@ -9335,64 +9563,64 @@
       </c>
       <c r="I10">
         <f>E7</f>
-        <v>60.000000000000007</v>
+        <v>60</v>
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>40.000000000000014</v>
+        <v>40</v>
       </c>
       <c r="K10">
         <f>$I$10-$G$10-$B$10</f>
-        <v>7.0000000000000071</v>
+        <v>7</v>
       </c>
       <c r="L10">
         <f>D7-E5-B10</f>
-        <v>7.0000000000000071</v>
+        <v>7</v>
       </c>
       <c r="M10">
         <f>E7-E5-B10</f>
-        <v>7.0000000000000071</v>
+        <v>7</v>
       </c>
       <c r="P10" s="1">
         <f>$D$5</f>
-        <v>33.000000000000007</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="17">
         <f t="shared" si="5"/>
-        <v>19.999999999999993</v>
+        <v>20</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" si="6"/>
-        <v>7.0000000000000071</v>
+        <v>7</v>
       </c>
       <c r="S10" t="str">
         <f t="shared" si="7"/>
         <v>Есть резерв</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1">
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <f>'1 - оптимизация'!AF18</f>
-        <v>13.999999999999993</v>
+        <v>14</v>
       </c>
       <c r="G11">
         <f>D6</f>
-        <v>46.000000000000014</v>
+        <v>46</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>60.000000000000007</v>
+        <v>60</v>
       </c>
       <c r="I11">
         <f>E7</f>
-        <v>60.000000000000007</v>
+        <v>60</v>
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
-        <v>46.000000000000014</v>
+        <v>46</v>
       </c>
       <c r="K11">
         <f>$I$11-$G$11-$B$11</f>
@@ -9408,11 +9636,11 @@
       </c>
       <c r="P11" s="1">
         <f>D6</f>
-        <v>46.000000000000014</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="17">
         <f t="shared" si="5"/>
-        <v>13.999999999999993</v>
+        <v>14</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="6"/>
@@ -9423,7 +9651,7 @@
         <v>Критич. Путь</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1">
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="51" t="s">
         <v>25</v>
       </c>
@@ -9453,13 +9681,13 @@
       </c>
       <c r="N12" s="50"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>14</v>
       </c>
       <c r="B13" s="14">
         <f>B4</f>
-        <v>33.000000000000007</v>
+        <v>33</v>
       </c>
       <c r="C13" s="13">
         <v>125</v>
@@ -9473,14 +9701,14 @@
       </c>
       <c r="F13" s="14">
         <f>B2+B6+B11</f>
-        <v>49.999999999999993</v>
+        <v>50</v>
       </c>
       <c r="G13" s="13">
         <v>256</v>
       </c>
       <c r="H13" s="14">
         <f>B6+B11</f>
-        <v>33.999999999999993</v>
+        <v>34</v>
       </c>
       <c r="I13" s="13">
         <v>25</v>
@@ -9501,51 +9729,51 @@
       </c>
       <c r="N13" s="14">
         <f>B10</f>
-        <v>19.999999999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>124</v>
       </c>
       <c r="B14" s="14">
         <f>B2+B5</f>
-        <v>33.000000000000007</v>
+        <v>33</v>
       </c>
       <c r="C14" s="13">
         <v>1245</v>
       </c>
       <c r="D14" s="14">
         <f>B2+B5+B9</f>
-        <v>46.000000000000014</v>
+        <v>46</v>
       </c>
       <c r="E14" s="13">
         <v>12456</v>
       </c>
       <c r="F14" s="14">
         <f>B2+B5+B9+B11</f>
-        <v>60.000000000000007</v>
+        <v>60</v>
       </c>
       <c r="G14" s="13">
         <v>2456</v>
       </c>
       <c r="H14" s="14">
         <f>B5+B9+B11</f>
-        <v>44.000000000000007</v>
+        <v>44</v>
       </c>
       <c r="I14" s="13">
         <v>245</v>
       </c>
       <c r="J14" s="14">
         <f>B5+B9</f>
-        <v>30.000000000000014</v>
+        <v>30</v>
       </c>
       <c r="K14" s="13">
         <v>346</v>
       </c>
       <c r="L14" s="14">
         <f>B7+B10</f>
-        <v>28.999999999999996</v>
+        <v>29</v>
       </c>
       <c r="M14" s="13">
         <v>456</v>
@@ -9555,20 +9783,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>134</v>
       </c>
       <c r="B15" s="14">
         <f>B3+B7</f>
-        <v>19.000000000000004</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13">
         <v>145</v>
       </c>
       <c r="D15" s="14">
         <f>B4+B9</f>
-        <v>46.000000000000014</v>
+        <v>46</v>
       </c>
       <c r="E15" s="13">
         <v>1246</v>
@@ -9595,14 +9823,14 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="C16" s="13">
         <v>1345</v>
       </c>
       <c r="D16" s="14">
         <f>B3+B7+B9</f>
-        <v>32.000000000000014</v>
+        <v>32</v>
       </c>
       <c r="E16" s="13">
         <v>146</v>
@@ -9620,7 +9848,7 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -9629,7 +9857,7 @@
       </c>
       <c r="F17" s="14">
         <f>B4+B9+B11</f>
-        <v>60.000000000000007</v>
+        <v>60</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -9640,7 +9868,7 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -9660,7 +9888,7 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -9696,14 +9924,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AA36"/>
   <sheetViews>
     <sheetView topLeftCell="E10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
@@ -9721,7 +9949,7 @@
     <col min="18" max="18" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:27">
+    <row r="3" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>242</v>
       </c>
@@ -9742,7 +9970,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="3:27">
+    <row r="4" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C4" s="26" t="s">
         <v>245</v>
       </c>
@@ -9770,7 +9998,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="3:27">
+    <row r="5" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C5" s="26" t="s">
         <v>246</v>
       </c>
@@ -9803,7 +10031,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="3:27">
+    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C6" s="26" t="s">
         <v>247</v>
       </c>
@@ -9836,7 +10064,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="3:27">
+    <row r="7" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C7" s="26" t="s">
         <v>248</v>
       </c>
@@ -9872,7 +10100,7 @@
       <c r="Z7" s="28"/>
       <c r="AA7" s="28"/>
     </row>
-    <row r="8" spans="3:27">
+    <row r="8" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C8" s="26" t="s">
         <v>249</v>
       </c>
@@ -9887,7 +10115,7 @@
       <c r="Z8" s="28"/>
       <c r="AA8" s="28"/>
     </row>
-    <row r="9" spans="3:27">
+    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
       <c r="U9" s="28"/>
       <c r="V9" s="28"/>
       <c r="W9" s="28"/>
@@ -9896,7 +10124,7 @@
       <c r="Z9" s="28"/>
       <c r="AA9" s="28"/>
     </row>
-    <row r="10" spans="3:27">
+    <row r="10" spans="3:27" x14ac:dyDescent="0.25">
       <c r="U10" s="28"/>
       <c r="V10" s="28"/>
       <c r="W10" s="28"/>
@@ -9905,7 +10133,7 @@
       <c r="Z10" s="28"/>
       <c r="AA10" s="28"/>
     </row>
-    <row r="11" spans="3:27">
+    <row r="11" spans="3:27" x14ac:dyDescent="0.25">
       <c r="U11" s="28"/>
       <c r="V11" s="28"/>
       <c r="W11" s="28"/>
@@ -9914,7 +10142,7 @@
       <c r="Z11" s="28"/>
       <c r="AA11" s="28"/>
     </row>
-    <row r="12" spans="3:27">
+    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>250</v>
       </c>
@@ -9945,7 +10173,7 @@
       <c r="Z12" s="28"/>
       <c r="AA12" s="28"/>
     </row>
-    <row r="13" spans="3:27">
+    <row r="13" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>251</v>
       </c>
@@ -9984,7 +10212,7 @@
       <c r="Z13" s="28"/>
       <c r="AA13" s="28"/>
     </row>
-    <row r="14" spans="3:27">
+    <row r="14" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>252</v>
       </c>
@@ -10016,7 +10244,7 @@
         <v>-21.000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="3:27">
+    <row r="15" spans="3:27" x14ac:dyDescent="0.25">
       <c r="L15" s="1" t="s">
         <v>265</v>
       </c>
@@ -10045,7 +10273,7 @@
         <v>-16.8</v>
       </c>
     </row>
-    <row r="16" spans="3:27">
+    <row r="16" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>253</v>
       </c>
@@ -10068,7 +10296,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>254</v>
       </c>
@@ -10081,7 +10309,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>255</v>
       </c>
@@ -10113,7 +10341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L19" s="1" t="s">
         <v>263</v>
       </c>
@@ -10145,7 +10373,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>256</v>
       </c>
@@ -10177,7 +10405,7 @@
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>257</v>
       </c>
@@ -10209,12 +10437,12 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>260</v>
@@ -10242,7 +10470,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>263</v>
       </c>
@@ -10282,7 +10510,7 @@
         <v>-13.05</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>264</v>
       </c>
@@ -10322,7 +10550,7 @@
         <v>-13.649999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>265</v>
       </c>
@@ -10362,7 +10590,7 @@
         <v>-15.75</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>248</v>
       </c>
@@ -10393,7 +10621,7 @@
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>260</v>
@@ -10421,7 +10649,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>263</v>
       </c>
@@ -10461,7 +10689,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>264</v>
       </c>
@@ -10501,7 +10729,7 @@
         <v>4.1999999999999993</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>265</v>
       </c>
@@ -10541,7 +10769,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>248</v>
       </c>
@@ -10581,14 +10809,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E16" sqref="E16:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
@@ -10598,27 +10826,27 @@
     <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
       <c r="D7" s="41" t="s">
@@ -10637,7 +10865,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="42" t="s">
         <v>276</v>
       </c>
@@ -10660,7 +10888,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
         <v>280</v>
       </c>
@@ -10681,7 +10909,7 @@
         <v>0.39999999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
         <v>281</v>
       </c>
@@ -10702,7 +10930,7 @@
         <v>0.6428571428571429</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="38" t="s">
         <v>282</v>
       </c>
@@ -10723,12 +10951,12 @@
         <v>0.16363636363636369</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
       <c r="D14" s="41" t="s">
@@ -10747,7 +10975,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="42" t="s">
         <v>276</v>
       </c>
@@ -10770,7 +10998,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="40" t="s">
         <v>298</v>
       </c>
@@ -10791,7 +11019,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="40" t="s">
         <v>299</v>
       </c>
@@ -10812,7 +11040,7 @@
         <v>0.18181818181818163</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="15.75" thickBot="1">
+    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="38" t="s">
         <v>300</v>
       </c>
@@ -10840,20 +11068,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C25" sqref="C25:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C3" s="1">
         <v>0</v>
       </c>
@@ -10865,13 +11093,13 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F4" s="15">
         <f>D3+E3+C3</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>263</v>
       </c>
@@ -10896,7 +11124,7 @@
       </c>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>264</v>
       </c>
@@ -10921,7 +11149,7 @@
       </c>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>265</v>
       </c>
@@ -10946,29 +11174,29 @@
       </c>
       <c r="M8" s="39"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M9" s="39"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M10" s="39"/>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D12">
         <f>1/F4</f>
         <v>6</v>
       </c>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" s="34">
         <v>9.0909090909090912E-2</v>
       </c>
@@ -10988,14 +11216,14 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C17" s="17">
         <f>'2'!M5+'Поиск решения'!$A$20</f>
         <v>18</v>
@@ -11030,7 +11258,7 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C18" s="17">
         <f>'2'!N5+'Поиск решения'!$A$20</f>
         <v>9</v>
@@ -11059,7 +11287,7 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C19" s="17">
         <f>'2'!O5+'Поиск решения'!$A$20</f>
         <v>11</v>
@@ -11088,7 +11316,7 @@
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24</v>
       </c>
@@ -11098,13 +11326,13 @@
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D22">
         <f>1/F15</f>
         <v>9.7058823529411775</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C24">
         <f>$D$22*C15</f>
         <v>0.88235294117647067</v>
@@ -11118,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C25">
         <f>J17*$D$22</f>
         <v>0</v>
